--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
   <si>
     <t>44234</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Profesor por asignatura A</t>
   </si>
   <si>
-    <t>http://www.upp.edu.mx/normatividad/wp-content/uploads/2014/11/Reglamento-Interno-Mar_2014.pdf</t>
-  </si>
-  <si>
     <t>Albino</t>
   </si>
   <si>
@@ -511,6 +508,9 @@
     <t>Argueta</t>
   </si>
   <si>
+    <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo. No se ha concluido el proceso, debido a que el contrato aún se encuentra en proceso de firma,ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
+  </si>
+  <si>
     <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo.</t>
   </si>
   <si>
@@ -523,118 +523,19 @@
     <t>Barrera</t>
   </si>
   <si>
+    <t>La institución no genera números de contratos para el personal contratados por honorarios. No se ha concluido el proceso, debido a que el contrato aún se encuentra en proceso de firma,ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
+  </si>
+  <si>
     <t>ISSSTE</t>
   </si>
   <si>
-    <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo. En el caso de la profesora, no se ha firmado el contrato aún, y derivado de la contingencia sanitaria que se tiene actualmente, por lo cual no se ha concluido el trámite de firma.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13JzDAOtd-C4b76iD7fwNYi38K9vrjHs6/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ip1ZbdjNoiynWAnbgYxPVEhxUGL4Q5GC/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/183xOEA8EqZMr87g_R9D_GPAPDCDBXnNn/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cxvxLxvmiTyjK6tjC3GifF4cjm3P3E53/view?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo. </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TJqjEdxnodxjJXxOq5SffbK7MU53oNKM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12K0wkJEpM88j2UtX-HeiJ1kXD_PPneoW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pgdxJErrYEimwuSQln8ffIeWfWqssbSm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cNQ4aVTruh4VckfRfIXsAmmyaYe14TiN/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GMIe18QNrK35SsYduoNTYkAWvRm7ULUZ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ADbq-qI4BCX-r4pZsliO8wSoBu2bEpqL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1B4JtJz945jshB5koItcXYxBOEe1b_ieX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CwjBnmcPc06PgPQhrDcgKUt3-fpUs4pQ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10NYYDDNYx2CvlC5fygBKRiWaKOeFonzM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VDS-F-F29NxX-FCd9ct0d1CyuvLBPSkM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OQRJKirPC8ETg7Vid2HXbugWHarP_fyK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kGog23lllp9fc833sNA_Oy9t3aTU1CbY/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rBnHOoJjzltkIk8dG_UhHAyDT_dOFB1H/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qvHZIhb1-M6QaAuYdDmbpkVu9La25ZDC/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11b1gv7f9Dxy45pF-DR2J9Ymd3Z-et96l/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12YujP8qooPjFiorbZXbfkI79aBm2ySyJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_kKtGgYWqkpap_cbdXmAHhQOGLmn4GaA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lZbOgxQvmvwawsSlGVDu3ox4h0H-N8v1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1G3qQv1b_mVON6DdW4da8FlQ7r6Ta9jpQ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ivzzj4HZDCwhr7SgX3cigDKrBfbIF27a/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Th-zPl4nnWKol71Pje6ajJahWPfGBC9m/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qIlYSB6FFJ71A1lP7M4KrGGK67VnORDv/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vQlMj5OcdzJxjUNZLScX6YaWtzgZCY0T/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1W3F3RhJySBr0cjJagu_y8bAztngrdOhJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1shoigk7geM1bvX9cB7zYFzKiIeJKpDhF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wU1TZMY8UvbyLRPvWyizIy0bWQ9Calin/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/119eDeB8RcXd3s1p0nIR5FGCfGwEu-9IO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1g0Vw6rjLJ6oeFMQ3wFbUc6V9Snkfi5bx/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OyzNVRFsqEAQCZ0wYbUlGRjEEPnjszxl/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YULBExIKUPBvp5UPgmOexYtBrIwQ5pjy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1PxWETBA6cre32Hf_oJ506Iz-LmM529ir/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1ghGfQVCnPtBy4ZwW2oaScnx67pCDuad0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O1oAlRbipeklRItiZUbAOxxy8__Xo1dH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/normatividad/files/interna/reglamentos/reglamento-interno-mar_2014.pdf</t>
   </si>
 </sst>
 </file>
@@ -727,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -775,6 +676,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -784,12 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1073,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,18 +980,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="86.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
@@ -1109,39 +1007,39 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="O3"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -1209,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1275,29 +1173,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1364,7 +1262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
@@ -1390,9 +1288,7 @@
         <v>63</v>
       </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="18" t="s">
-        <v>168</v>
-      </c>
+      <c r="J8" s="14"/>
       <c r="K8" s="7">
         <v>44081</v>
       </c>
@@ -1409,10 +1305,10 @@
         <v>18144</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>60</v>
@@ -1424,10 +1320,10 @@
         <v>44114</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
@@ -1444,16 +1340,16 @@
         <v>121001</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="19" t="s">
         <v>169</v>
       </c>
       <c r="K9" s="7">
@@ -1463,7 +1359,7 @@
         <v>44196</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" s="15">
         <v>22738.5</v>
@@ -1473,7 +1369,7 @@
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>60</v>
@@ -1488,7 +1384,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2020</v>
       </c>
@@ -1505,17 +1401,17 @@
         <v>121001</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="18" t="s">
-        <v>170</v>
+      <c r="J10" s="19" t="s">
+        <v>168</v>
       </c>
       <c r="K10" s="7">
         <v>44013</v>
@@ -1524,7 +1420,7 @@
         <v>44196</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N10" s="15">
         <v>14053.34</v>
@@ -1534,7 +1430,7 @@
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>60</v>
@@ -1549,7 +1445,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2020</v>
       </c>
@@ -1566,18 +1462,16 @@
         <v>121001</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="18" t="s">
-        <v>171</v>
-      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="7">
         <v>44081</v>
       </c>
@@ -1585,7 +1479,7 @@
         <v>44183</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="15">
         <v>9881.16</v>
@@ -1594,10 +1488,10 @@
         <v>27783</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>60</v>
@@ -1609,7 +1503,7 @@
         <v>44114</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.25">
@@ -1629,13 +1523,13 @@
         <v>121001</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
@@ -1655,10 +1549,10 @@
         <v>19278</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>60</v>
@@ -1670,10 +1564,10 @@
         <v>44114</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2020</v>
       </c>
@@ -1690,18 +1584,16 @@
         <v>121001</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="18" t="s">
-        <v>173</v>
-      </c>
+      <c r="J13" s="14"/>
       <c r="K13" s="7">
         <v>44081</v>
       </c>
@@ -1718,10 +1610,10 @@
         <v>22680</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>60</v>
@@ -1733,10 +1625,10 @@
         <v>44114</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2020</v>
       </c>
@@ -1753,18 +1645,16 @@
         <v>121001</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="18" t="s">
-        <v>174</v>
-      </c>
+      <c r="J14" s="14"/>
       <c r="K14" s="7">
         <v>44081</v>
       </c>
@@ -1781,10 +1671,10 @@
         <v>22680</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>60</v>
@@ -1796,10 +1686,10 @@
         <v>44114</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2020</v>
       </c>
@@ -1825,9 +1715,7 @@
         <v>165</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="18" t="s">
-        <v>175</v>
-      </c>
+      <c r="J15" s="14"/>
       <c r="K15" s="7">
         <v>44081</v>
       </c>
@@ -1845,7 +1733,7 @@
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>60</v>
@@ -1857,10 +1745,10 @@
         <v>44114</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2020</v>
       </c>
@@ -1877,18 +1765,16 @@
         <v>121001</v>
       </c>
       <c r="F16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>89</v>
-      </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="18" t="s">
-        <v>176</v>
-      </c>
+      <c r="J16" s="14"/>
       <c r="K16" s="7">
         <v>44081</v>
       </c>
@@ -1905,10 +1791,10 @@
         <v>22680</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>60</v>
@@ -1920,10 +1806,10 @@
         <v>44114</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2020</v>
       </c>
@@ -1940,18 +1826,16 @@
         <v>121001</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="18" t="s">
-        <v>177</v>
-      </c>
+      <c r="J17" s="14"/>
       <c r="K17" s="7">
         <v>44081</v>
       </c>
@@ -1968,10 +1852,10 @@
         <v>22680</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>60</v>
@@ -1983,10 +1867,10 @@
         <v>44114</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2020</v>
       </c>
@@ -2003,18 +1887,16 @@
         <v>121001</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="18" t="s">
-        <v>178</v>
-      </c>
+      <c r="J18" s="14"/>
       <c r="K18" s="7">
         <v>44081</v>
       </c>
@@ -2022,7 +1904,7 @@
         <v>44183</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="15">
         <v>9881.16</v>
@@ -2031,10 +1913,10 @@
         <v>27783</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>60</v>
@@ -2046,10 +1928,10 @@
         <v>44114</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2020</v>
       </c>
@@ -2066,18 +1948,16 @@
         <v>121001</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I19" s="13"/>
-      <c r="J19" s="18" t="s">
-        <v>179</v>
-      </c>
+      <c r="J19" s="14"/>
       <c r="K19" s="7">
         <v>44081</v>
       </c>
@@ -2094,10 +1974,10 @@
         <v>22680</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>60</v>
@@ -2109,10 +1989,10 @@
         <v>44114</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2020</v>
       </c>
@@ -2129,18 +2009,16 @@
         <v>121001</v>
       </c>
       <c r="F20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>101</v>
-      </c>
       <c r="I20" s="13"/>
-      <c r="J20" s="18" t="s">
-        <v>180</v>
-      </c>
+      <c r="J20" s="14"/>
       <c r="K20" s="7">
         <v>44081</v>
       </c>
@@ -2157,10 +2035,10 @@
         <v>15876</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>60</v>
@@ -2172,10 +2050,10 @@
         <v>44114</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
@@ -2192,18 +2070,16 @@
         <v>121001</v>
       </c>
       <c r="F21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>104</v>
-      </c>
       <c r="I21" s="13"/>
-      <c r="J21" s="18" t="s">
-        <v>181</v>
-      </c>
+      <c r="J21" s="14"/>
       <c r="K21" s="7">
         <v>44081</v>
       </c>
@@ -2211,7 +2087,7 @@
         <v>44183</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N21" s="15">
         <v>7391.7</v>
@@ -2220,10 +2096,10 @@
         <v>21168</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>60</v>
@@ -2235,10 +2111,10 @@
         <v>44114</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2020</v>
       </c>
@@ -2255,18 +2131,16 @@
         <v>121001</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="I22" s="13"/>
-      <c r="J22" s="18" t="s">
-        <v>182</v>
-      </c>
+      <c r="J22" s="14"/>
       <c r="K22" s="7">
         <v>44081</v>
       </c>
@@ -2283,10 +2157,10 @@
         <v>22680</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>60</v>
@@ -2298,10 +2172,10 @@
         <v>44114</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2020</v>
       </c>
@@ -2318,18 +2192,16 @@
         <v>121001</v>
       </c>
       <c r="F23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="I23" s="13"/>
-      <c r="J23" s="18" t="s">
-        <v>183</v>
-      </c>
+      <c r="J23" s="14"/>
       <c r="K23" s="7">
         <v>44081</v>
       </c>
@@ -2346,10 +2218,10 @@
         <v>22680</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>60</v>
@@ -2361,10 +2233,10 @@
         <v>44114</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2020</v>
       </c>
@@ -2381,18 +2253,16 @@
         <v>121001</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="I24" s="13"/>
-      <c r="J24" s="18" t="s">
-        <v>184</v>
-      </c>
+      <c r="J24" s="14"/>
       <c r="K24" s="7">
         <v>44081</v>
       </c>
@@ -2409,10 +2279,10 @@
         <v>17010</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>60</v>
@@ -2424,10 +2294,10 @@
         <v>44114</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2020</v>
       </c>
@@ -2444,18 +2314,16 @@
         <v>121001</v>
       </c>
       <c r="F25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="H25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="I25" s="13"/>
-      <c r="J25" s="18" t="s">
-        <v>185</v>
-      </c>
+      <c r="J25" s="14"/>
       <c r="K25" s="7">
         <v>44081</v>
       </c>
@@ -2472,10 +2340,10 @@
         <v>22680</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>60</v>
@@ -2487,10 +2355,10 @@
         <v>44114</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
@@ -2507,18 +2375,16 @@
         <v>121001</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="H26" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="18" t="s">
-        <v>186</v>
-      </c>
+      <c r="J26" s="14"/>
       <c r="K26" s="7">
         <v>44081</v>
       </c>
@@ -2535,10 +2401,10 @@
         <v>22680</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>60</v>
@@ -2550,10 +2416,10 @@
         <v>44114</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2020</v>
       </c>
@@ -2570,18 +2436,16 @@
         <v>121001</v>
       </c>
       <c r="F27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="H27" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="I27" s="13"/>
-      <c r="J27" s="18" t="s">
-        <v>187</v>
-      </c>
+      <c r="J27" s="14"/>
       <c r="K27" s="7">
         <v>44081</v>
       </c>
@@ -2589,7 +2453,7 @@
         <v>44183</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N27" s="15">
         <v>8354.82</v>
@@ -2598,10 +2462,10 @@
         <v>23814</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>60</v>
@@ -2613,10 +2477,10 @@
         <v>44114</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2020</v>
       </c>
@@ -2633,18 +2497,16 @@
         <v>121001</v>
       </c>
       <c r="F28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="18" t="s">
-        <v>188</v>
-      </c>
+      <c r="J28" s="14"/>
       <c r="K28" s="7">
         <v>44081</v>
       </c>
@@ -2661,10 +2523,10 @@
         <v>22680</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>60</v>
@@ -2676,10 +2538,10 @@
         <v>44114</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -2696,18 +2558,16 @@
         <v>121001</v>
       </c>
       <c r="F29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="H29" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="I29" s="13"/>
-      <c r="J29" s="18" t="s">
-        <v>189</v>
-      </c>
+      <c r="J29" s="14"/>
       <c r="K29" s="7">
         <v>44081</v>
       </c>
@@ -2724,10 +2584,10 @@
         <v>17010</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>60</v>
@@ -2739,10 +2599,10 @@
         <v>44114</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
@@ -2759,18 +2619,16 @@
         <v>121001</v>
       </c>
       <c r="F30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="18" t="s">
-        <v>190</v>
-      </c>
+      <c r="J30" s="14"/>
       <c r="K30" s="7">
         <v>44081</v>
       </c>
@@ -2778,7 +2636,7 @@
         <v>44183</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N30" s="15">
         <v>7873.24</v>
@@ -2787,10 +2645,10 @@
         <v>22491</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>60</v>
@@ -2802,10 +2660,10 @@
         <v>44114</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2020</v>
       </c>
@@ -2822,18 +2680,16 @@
         <v>121001</v>
       </c>
       <c r="F31" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="I31" s="13"/>
-      <c r="J31" s="18" t="s">
-        <v>191</v>
-      </c>
+      <c r="J31" s="14"/>
       <c r="K31" s="7">
         <v>44081</v>
       </c>
@@ -2850,10 +2706,10 @@
         <v>22680</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>60</v>
@@ -2865,10 +2721,10 @@
         <v>44114</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2020</v>
       </c>
@@ -2885,18 +2741,16 @@
         <v>121001</v>
       </c>
       <c r="F32" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="H32" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="13"/>
-      <c r="J32" s="18" t="s">
-        <v>192</v>
-      </c>
+      <c r="J32" s="14"/>
       <c r="K32" s="7">
         <v>44081</v>
       </c>
@@ -2913,10 +2767,10 @@
         <v>22680</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>60</v>
@@ -2928,10 +2782,10 @@
         <v>44114</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2020</v>
       </c>
@@ -2948,18 +2802,16 @@
         <v>121001</v>
       </c>
       <c r="F33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="H33" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="18" t="s">
-        <v>193</v>
-      </c>
+      <c r="J33" s="14"/>
       <c r="K33" s="7">
         <v>44081</v>
       </c>
@@ -2976,10 +2828,10 @@
         <v>22680</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>60</v>
@@ -2991,10 +2843,10 @@
         <v>44114</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2020</v>
       </c>
@@ -3011,18 +2863,16 @@
         <v>121001</v>
       </c>
       <c r="F34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>140</v>
-      </c>
       <c r="I34" s="13"/>
-      <c r="J34" s="18" t="s">
-        <v>194</v>
-      </c>
+      <c r="J34" s="14"/>
       <c r="K34" s="7">
         <v>44081</v>
       </c>
@@ -3039,10 +2889,10 @@
         <v>23814</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>60</v>
@@ -3054,10 +2904,10 @@
         <v>44114</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2020</v>
       </c>
@@ -3074,18 +2924,16 @@
         <v>121001</v>
       </c>
       <c r="F35" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>142</v>
-      </c>
       <c r="I35" s="13"/>
-      <c r="J35" s="18" t="s">
-        <v>195</v>
-      </c>
+      <c r="J35" s="14"/>
       <c r="K35" s="7">
         <v>44081</v>
       </c>
@@ -3093,7 +2941,7 @@
         <v>44183</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N35" s="15">
         <v>8354.82</v>
@@ -3102,10 +2950,10 @@
         <v>23814</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>60</v>
@@ -3117,10 +2965,10 @@
         <v>44114</v>
       </c>
       <c r="U35" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2020</v>
       </c>
@@ -3137,18 +2985,16 @@
         <v>121001</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>63</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="13"/>
-      <c r="J36" s="18" t="s">
-        <v>196</v>
-      </c>
+      <c r="J36" s="14"/>
       <c r="K36" s="7">
         <v>44081</v>
       </c>
@@ -3156,7 +3002,7 @@
         <v>44183</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N36" s="15">
         <v>9881.16</v>
@@ -3165,10 +3011,10 @@
         <v>27783</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>60</v>
@@ -3180,10 +3026,10 @@
         <v>44114</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
@@ -3200,18 +3046,16 @@
         <v>121001</v>
       </c>
       <c r="F37" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>146</v>
-      </c>
       <c r="H37" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="18" t="s">
-        <v>197</v>
-      </c>
+      <c r="J37" s="14"/>
       <c r="K37" s="7">
         <v>44081</v>
       </c>
@@ -3228,10 +3072,10 @@
         <v>17010</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>60</v>
@@ -3243,10 +3087,10 @@
         <v>44114</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2020</v>
       </c>
@@ -3263,18 +3107,16 @@
         <v>121001</v>
       </c>
       <c r="F38" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="I38" s="13"/>
-      <c r="J38" s="18" t="s">
-        <v>198</v>
-      </c>
+      <c r="J38" s="14"/>
       <c r="K38" s="7">
         <v>44081</v>
       </c>
@@ -3291,10 +3133,10 @@
         <v>22680</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>60</v>
@@ -3306,10 +3148,10 @@
         <v>44114</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2020</v>
       </c>
@@ -3326,18 +3168,16 @@
         <v>121001</v>
       </c>
       <c r="F39" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="H39" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="I39" s="13"/>
-      <c r="J39" s="18" t="s">
-        <v>199</v>
-      </c>
+      <c r="J39" s="14"/>
       <c r="K39" s="7">
         <v>44081</v>
       </c>
@@ -3354,10 +3194,10 @@
         <v>22680</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R39" s="4" t="s">
         <v>60</v>
@@ -3369,10 +3209,10 @@
         <v>44114</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2020</v>
       </c>
@@ -3389,18 +3229,16 @@
         <v>121001</v>
       </c>
       <c r="F40" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="H40" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="18" t="s">
-        <v>200</v>
-      </c>
+      <c r="J40" s="14"/>
       <c r="K40" s="7">
         <v>44081</v>
       </c>
@@ -3417,10 +3255,10 @@
         <v>22680</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>60</v>
@@ -3432,10 +3270,10 @@
         <v>44114</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2020</v>
       </c>
@@ -3452,18 +3290,16 @@
         <v>121001</v>
       </c>
       <c r="F41" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="H41" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>156</v>
-      </c>
       <c r="I41" s="13"/>
-      <c r="J41" s="18" t="s">
-        <v>201</v>
-      </c>
+      <c r="J41" s="14"/>
       <c r="K41" s="7">
         <v>44081</v>
       </c>
@@ -3471,7 +3307,7 @@
         <v>44183</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N41" s="15">
         <v>9365.9599999999991</v>
@@ -3480,10 +3316,10 @@
         <v>26460</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>60</v>
@@ -3495,10 +3331,10 @@
         <v>44114</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2020</v>
       </c>
@@ -3515,18 +3351,16 @@
         <v>121001</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="13"/>
-      <c r="J42" s="18" t="s">
-        <v>202</v>
-      </c>
+      <c r="J42" s="14"/>
       <c r="K42" s="7">
         <v>44081</v>
       </c>
@@ -3534,7 +3368,7 @@
         <v>44183</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N42" s="15">
         <v>10859.58</v>
@@ -3543,10 +3377,10 @@
         <v>30240</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>60</v>
@@ -3558,10 +3392,10 @@
         <v>44114</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2020</v>
       </c>
@@ -3578,18 +3412,16 @@
         <v>121001</v>
       </c>
       <c r="F43" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="H43" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="I43" s="16"/>
-      <c r="J43" s="18" t="s">
-        <v>203</v>
-      </c>
+      <c r="J43" s="17"/>
       <c r="K43" s="7">
         <v>44081</v>
       </c>
@@ -3606,10 +3438,10 @@
         <v>22080</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>60</v>
@@ -3621,7 +3453,7 @@
         <v>44114</v>
       </c>
       <c r="U43" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3635,85 +3467,52 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q8:Q31" r:id="rId1" display="http://www.upp.edu.mx/normatividad/wp-content/uploads/2014/11/Reglamento-Interno-Mar_2014.pdf"/>
-    <hyperlink ref="Q9" r:id="rId2"/>
-    <hyperlink ref="Q10" r:id="rId3"/>
-    <hyperlink ref="Q11" r:id="rId4"/>
-    <hyperlink ref="Q13" r:id="rId5"/>
-    <hyperlink ref="Q14" r:id="rId6"/>
-    <hyperlink ref="Q16" r:id="rId7"/>
-    <hyperlink ref="Q17" r:id="rId8"/>
-    <hyperlink ref="Q18" r:id="rId9"/>
-    <hyperlink ref="Q19" r:id="rId10"/>
-    <hyperlink ref="Q20" r:id="rId11"/>
-    <hyperlink ref="Q21" r:id="rId12"/>
-    <hyperlink ref="Q22" r:id="rId13"/>
-    <hyperlink ref="Q23" r:id="rId14"/>
-    <hyperlink ref="Q24" r:id="rId15"/>
-    <hyperlink ref="Q25" r:id="rId16"/>
-    <hyperlink ref="Q26" r:id="rId17"/>
-    <hyperlink ref="Q27" r:id="rId18"/>
-    <hyperlink ref="Q28" r:id="rId19"/>
-    <hyperlink ref="Q29" r:id="rId20"/>
-    <hyperlink ref="Q30" r:id="rId21"/>
-    <hyperlink ref="Q31" r:id="rId22"/>
-    <hyperlink ref="Q32" r:id="rId23"/>
-    <hyperlink ref="Q33" r:id="rId24"/>
-    <hyperlink ref="Q34" r:id="rId25"/>
-    <hyperlink ref="Q35" r:id="rId26"/>
-    <hyperlink ref="Q36" r:id="rId27"/>
-    <hyperlink ref="Q37" r:id="rId28"/>
-    <hyperlink ref="Q38" r:id="rId29"/>
-    <hyperlink ref="Q39" r:id="rId30"/>
-    <hyperlink ref="Q40" r:id="rId31"/>
-    <hyperlink ref="Q41" r:id="rId32"/>
-    <hyperlink ref="Q42" r:id="rId33"/>
-    <hyperlink ref="Q12" r:id="rId34"/>
-    <hyperlink ref="Q43" r:id="rId35"/>
-    <hyperlink ref="Q15" r:id="rId36"/>
-    <hyperlink ref="J9" r:id="rId37"/>
-    <hyperlink ref="J8" r:id="rId38"/>
-    <hyperlink ref="J10" r:id="rId39"/>
-    <hyperlink ref="J11" r:id="rId40"/>
-    <hyperlink ref="J13" r:id="rId41"/>
-    <hyperlink ref="J14" r:id="rId42"/>
-    <hyperlink ref="J15" r:id="rId43"/>
-    <hyperlink ref="J16" r:id="rId44"/>
-    <hyperlink ref="J17" r:id="rId45"/>
-    <hyperlink ref="J18" r:id="rId46"/>
-    <hyperlink ref="J19" r:id="rId47"/>
-    <hyperlink ref="J20" r:id="rId48"/>
-    <hyperlink ref="J21" r:id="rId49"/>
-    <hyperlink ref="J22" r:id="rId50"/>
-    <hyperlink ref="J23" r:id="rId51"/>
-    <hyperlink ref="J24" r:id="rId52"/>
-    <hyperlink ref="J25" r:id="rId53"/>
-    <hyperlink ref="J26" r:id="rId54"/>
-    <hyperlink ref="J27" r:id="rId55"/>
-    <hyperlink ref="J28" r:id="rId56"/>
-    <hyperlink ref="J29" r:id="rId57"/>
-    <hyperlink ref="J30" r:id="rId58"/>
-    <hyperlink ref="J31" r:id="rId59"/>
-    <hyperlink ref="J32" r:id="rId60"/>
-    <hyperlink ref="J33" r:id="rId61"/>
-    <hyperlink ref="J34" r:id="rId62"/>
-    <hyperlink ref="J35" r:id="rId63"/>
-    <hyperlink ref="J36" r:id="rId64"/>
-    <hyperlink ref="J37" r:id="rId65"/>
-    <hyperlink ref="J38" r:id="rId66"/>
-    <hyperlink ref="J39" r:id="rId67"/>
-    <hyperlink ref="J40" r:id="rId68"/>
-    <hyperlink ref="J41" r:id="rId69"/>
-    <hyperlink ref="J42" r:id="rId70"/>
-    <hyperlink ref="J43" r:id="rId71"/>
+    <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="Q8" r:id="rId3"/>
+    <hyperlink ref="Q9" r:id="rId4"/>
+    <hyperlink ref="Q10" r:id="rId5"/>
+    <hyperlink ref="Q11" r:id="rId6"/>
+    <hyperlink ref="Q12" r:id="rId7"/>
+    <hyperlink ref="Q13" r:id="rId8"/>
+    <hyperlink ref="Q14" r:id="rId9"/>
+    <hyperlink ref="Q15" r:id="rId10"/>
+    <hyperlink ref="Q16" r:id="rId11"/>
+    <hyperlink ref="Q17" r:id="rId12"/>
+    <hyperlink ref="Q18" r:id="rId13"/>
+    <hyperlink ref="Q19" r:id="rId14"/>
+    <hyperlink ref="Q20" r:id="rId15"/>
+    <hyperlink ref="Q21" r:id="rId16"/>
+    <hyperlink ref="Q22" r:id="rId17"/>
+    <hyperlink ref="Q23" r:id="rId18"/>
+    <hyperlink ref="Q24" r:id="rId19"/>
+    <hyperlink ref="Q25" r:id="rId20"/>
+    <hyperlink ref="Q26" r:id="rId21"/>
+    <hyperlink ref="Q27" r:id="rId22"/>
+    <hyperlink ref="Q28" r:id="rId23"/>
+    <hyperlink ref="Q29" r:id="rId24"/>
+    <hyperlink ref="Q30" r:id="rId25"/>
+    <hyperlink ref="Q31" r:id="rId26"/>
+    <hyperlink ref="Q32" r:id="rId27"/>
+    <hyperlink ref="Q33" r:id="rId28"/>
+    <hyperlink ref="Q34" r:id="rId29"/>
+    <hyperlink ref="Q35" r:id="rId30"/>
+    <hyperlink ref="Q36" r:id="rId31"/>
+    <hyperlink ref="Q37" r:id="rId32"/>
+    <hyperlink ref="Q38" r:id="rId33"/>
+    <hyperlink ref="Q39" r:id="rId34"/>
+    <hyperlink ref="Q40" r:id="rId35"/>
+    <hyperlink ref="Q41" r:id="rId36"/>
+    <hyperlink ref="Q42" r:id="rId37"/>
+    <hyperlink ref="Q43" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId72"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="203">
   <si>
     <t>44234</t>
   </si>
@@ -220,6 +220,12 @@
     <t>Profesor por asignatura A</t>
   </si>
   <si>
+    <t>ISSSTE</t>
+  </si>
+  <si>
+    <t>http://www.upp.edu.mx/normatividad/wp-content/uploads/2014/11/Reglamento-Interno-Mar_2014.pdf</t>
+  </si>
+  <si>
     <t>Albino</t>
   </si>
   <si>
@@ -283,6 +289,15 @@
     <t>Camarillo</t>
   </si>
   <si>
+    <t>Reyna Juana</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
     <t>Álvaro Octavio</t>
   </si>
   <si>
@@ -508,34 +523,115 @@
     <t>Argueta</t>
   </si>
   <si>
-    <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo. No se ha concluido el proceso, debido a que el contrato aún se encuentra en proceso de firma,ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
-  </si>
-  <si>
     <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo.</t>
   </si>
   <si>
-    <t>Reyna Juana</t>
-  </si>
-  <si>
-    <t>Monroy</t>
-  </si>
-  <si>
-    <t>Barrera</t>
-  </si>
-  <si>
-    <t>La institución no genera números de contratos para el personal contratados por honorarios. No se ha concluido el proceso, debido a que el contrato aún se encuentra en proceso de firma,ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
-  </si>
-  <si>
-    <t>ISSSTE</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ghGfQVCnPtBy4ZwW2oaScnx67pCDuad0/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1O1oAlRbipeklRItiZUbAOxxy8__Xo1dH/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/normatividad/files/interna/reglamentos/reglamento-interno-mar_2014.pdf</t>
+    <t>https://drive.google.com/file/d/13JzDAOtd-C4b76iD7fwNYi38K9vrjHs6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ip1ZbdjNoiynWAnbgYxPVEhxUGL4Q5GC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/183xOEA8EqZMr87g_R9D_GPAPDCDBXnNn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cxvxLxvmiTyjK6tjC3GifF4cjm3P3E53/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TJqjEdxnodxjJXxOq5SffbK7MU53oNKM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12K0wkJEpM88j2UtX-HeiJ1kXD_PPneoW/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pgdxJErrYEimwuSQln8ffIeWfWqssbSm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cNQ4aVTruh4VckfRfIXsAmmyaYe14TiN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GMIe18QNrK35SsYduoNTYkAWvRm7ULUZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ADbq-qI4BCX-r4pZsliO8wSoBu2bEpqL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1B4JtJz945jshB5koItcXYxBOEe1b_ieX/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CwjBnmcPc06PgPQhrDcgKUt3-fpUs4pQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10NYYDDNYx2CvlC5fygBKRiWaKOeFonzM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VDS-F-F29NxX-FCd9ct0d1CyuvLBPSkM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OQRJKirPC8ETg7Vid2HXbugWHarP_fyK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kGog23lllp9fc833sNA_Oy9t3aTU1CbY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rBnHOoJjzltkIk8dG_UhHAyDT_dOFB1H/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qvHZIhb1-M6QaAuYdDmbpkVu9La25ZDC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11b1gv7f9Dxy45pF-DR2J9Ymd3Z-et96l/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12YujP8qooPjFiorbZXbfkI79aBm2ySyJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_kKtGgYWqkpap_cbdXmAHhQOGLmn4GaA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lZbOgxQvmvwawsSlGVDu3ox4h0H-N8v1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G3qQv1b_mVON6DdW4da8FlQ7r6Ta9jpQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ivzzj4HZDCwhr7SgX3cigDKrBfbIF27a/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Th-zPl4nnWKol71Pje6ajJahWPfGBC9m/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qIlYSB6FFJ71A1lP7M4KrGGK67VnORDv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vQlMj5OcdzJxjUNZLScX6YaWtzgZCY0T/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W3F3RhJySBr0cjJagu_y8bAztngrdOhJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1shoigk7geM1bvX9cB7zYFzKiIeJKpDhF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wU1TZMY8UvbyLRPvWyizIy0bWQ9Calin/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/119eDeB8RcXd3s1p0nIR5FGCfGwEu-9IO/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g0Vw6rjLJ6oeFMQ3wFbUc6V9Snkfi5bx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OyzNVRFsqEAQCZ0wYbUlGRjEEPnjszxl/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YULBExIKUPBvp5UPgmOexYtBrIwQ5pjy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PxWETBA6cre32Hf_oJ506Iz-LmM529ir/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fHfhZtbczEZLtc8CPnZxkC7UuOv2vhZK/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -642,11 +738,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,39 +753,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -971,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,67 +1078,64 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="85.85546875" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
     <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.7109375" customWidth="1"/>
+    <col min="21" max="21" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="O3"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1173,29 +1268,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1262,64 +1357,66 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>121001</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="7">
+      <c r="I8" s="5"/>
+      <c r="J8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="6">
         <v>44081</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>44183</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="7">
         <v>6290.98</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="7">
         <v>18144</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U8" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U8" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1328,60 +1425,60 @@
         <v>2020</v>
       </c>
       <c r="B9" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C9" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="4">
         <v>121001</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="F9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="6">
         <v>44013</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>44196</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="15">
+      <c r="M9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="7">
         <v>22738.5</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="7">
         <v>67112.5</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S9" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T9" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>162</v>
+        <v>44206</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1389,2070 +1486,2136 @@
         <v>2020</v>
       </c>
       <c r="B10" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C10" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="4">
         <v>121001</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="F10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="G10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="6">
         <v>44013</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>44196</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="M10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="7">
         <v>14053.34</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="7">
         <v>43207.5</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S10" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T10" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2020</v>
       </c>
       <c r="B11" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C11" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="4">
         <v>121001</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="7">
+      <c r="G11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="6">
         <v>44081</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>44183</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="15">
+      <c r="M11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="7">
         <v>9881.16</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="7">
         <v>27783</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S11" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T11" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U11" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U11" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2020</v>
       </c>
       <c r="B12" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C12" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="4">
         <v>121001</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="7">
+      <c r="G12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="6">
         <v>44081</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>44183</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="7">
         <v>6703.76</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="7">
         <v>19278</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T12" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U12" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U12" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2020</v>
       </c>
       <c r="B13" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C13" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D13" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="4">
         <v>121001</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="7">
+      <c r="G13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="6">
         <v>44081</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>44183</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="7">
         <v>22680</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S13" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T13" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U13" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U13" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2020</v>
       </c>
       <c r="B14" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C14" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="4">
         <v>121001</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="F14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="7">
+      <c r="G14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="6">
         <v>44081</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <v>44183</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="7">
         <v>22680</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S14" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T14" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U14" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2020</v>
       </c>
       <c r="B15" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C15" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>121001</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="7">
+      <c r="F15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="6">
         <v>44081</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>44183</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="7">
         <v>1356.92</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="7">
         <v>4536</v>
       </c>
       <c r="P15" s="8"/>
       <c r="Q15" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S15" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T15" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2020</v>
       </c>
       <c r="B16" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C16" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="4">
         <v>121001</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="7">
+      <c r="F16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="6">
         <v>44081</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <v>44183</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="7">
         <v>22680</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S16" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T16" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U16" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U16" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2020</v>
       </c>
       <c r="B17" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C17" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4">
         <v>121001</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="7">
+      <c r="F17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="6">
         <v>44081</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>44183</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="7">
         <v>22680</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S17" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T17" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U17" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U17" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2020</v>
       </c>
       <c r="B18" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C18" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D18" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="4">
         <v>121001</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="7">
+      <c r="F18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="6">
         <v>44081</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>44183</v>
       </c>
-      <c r="M18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="15">
+      <c r="M18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="7">
         <v>9881.16</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="7">
         <v>27783</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S18" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T18" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U18" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U18" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2020</v>
       </c>
       <c r="B19" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C19" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="4">
         <v>121001</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="7">
+      <c r="F19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="6">
         <v>44081</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>44183</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="7">
         <v>22680</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S19" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T19" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U19" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U19" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2020</v>
       </c>
       <c r="B20" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C20" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D20" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="4">
         <v>121001</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="7">
+      <c r="F20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="6">
         <v>44081</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>44183</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="7">
         <v>5465.44</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="7">
         <v>15876</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S20" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T20" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U20" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U20" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
       <c r="B21" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C21" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D21" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="4">
         <v>121001</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="7">
+      <c r="F21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="6">
         <v>44081</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>44183</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="15">
+      <c r="M21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="7">
         <v>7391.7</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="7">
         <v>21168</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S21" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T21" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U21" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U21" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2020</v>
       </c>
       <c r="B22" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C22" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D22" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="4">
         <v>121001</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="7">
+      <c r="F22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="6">
         <v>44081</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>44183</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="7">
         <v>22680</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S22" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T22" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U22" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U22" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2020</v>
       </c>
       <c r="B23" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C23" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="4">
         <v>121001</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="7">
+      <c r="F23" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="6">
         <v>44081</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>44183</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="7">
         <v>22680</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S23" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T23" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U23" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U23" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2020</v>
       </c>
       <c r="B24" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C24" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D24" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4">
         <v>121001</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="7">
+      <c r="F24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" s="6">
         <v>44081</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>44183</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="7">
         <v>5878.24</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="7">
         <v>17010</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S24" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T24" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U24" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U24" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2020</v>
       </c>
       <c r="B25" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C25" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D25" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="4">
         <v>121001</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="7">
+      <c r="F25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="6">
         <v>44081</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <v>44183</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="7">
         <v>22680</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S25" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T25" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U25" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U25" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
       <c r="B26" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C26" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="4">
         <v>121001</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="7">
+      <c r="F26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="6">
         <v>44081</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>44183</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="7">
         <v>22680</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S26" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T26" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U26" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U26" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2020</v>
       </c>
       <c r="B27" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C27" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D27" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4">
         <v>121001</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="7">
+      <c r="F27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="6">
         <v>44081</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <v>44183</v>
       </c>
-      <c r="M27" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="15">
+      <c r="M27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" s="7">
         <v>8354.82</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="7">
         <v>23814</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S27" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T27" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U27" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U27" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2020</v>
       </c>
       <c r="B28" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C28" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D28" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="4">
         <v>121001</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="7">
+      <c r="F28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="6">
         <v>44081</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <v>44183</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="7">
         <v>22680</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S28" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T28" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U28" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U28" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
       <c r="B29" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C29" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="4">
         <v>121001</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="7">
+      <c r="F29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="6">
         <v>44081</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>44183</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N29" s="7">
         <v>5878.24</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="7">
         <v>17010</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S29" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T29" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U29" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U29" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
       <c r="B30" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C30" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D30" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="4">
         <v>121001</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="7">
+      <c r="F30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="6">
         <v>44081</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <v>44183</v>
       </c>
-      <c r="M30" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="15">
+      <c r="M30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N30" s="7">
         <v>7873.24</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="7">
         <v>22491</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S30" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T30" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U30" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U30" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2020</v>
       </c>
       <c r="B31" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C31" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D31" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="4">
         <v>121001</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="7">
+      <c r="F31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="6">
         <v>44081</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <v>44183</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="7">
         <v>22680</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S31" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T31" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U31" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U31" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2020</v>
       </c>
       <c r="B32" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C32" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D32" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="4">
         <v>121001</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="7">
+      <c r="F32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="6">
         <v>44081</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <v>44183</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="7">
         <v>22680</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S32" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T32" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U32" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U32" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2020</v>
       </c>
       <c r="B33" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C33" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="4">
         <v>121001</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="7">
+      <c r="F33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33" s="6">
         <v>44081</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <v>44183</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="7">
         <v>22680</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S33" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T33" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U33" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U33" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2020</v>
       </c>
       <c r="B34" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C34" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="4">
         <v>121001</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="7">
+      <c r="F34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="6">
         <v>44081</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <v>44183</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="7">
         <v>8354.82</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="7">
         <v>23814</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S34" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T34" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U34" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U34" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2020</v>
       </c>
       <c r="B35" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C35" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D35" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="4">
         <v>121001</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="7">
+      <c r="F35" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="6">
         <v>44081</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <v>44183</v>
       </c>
-      <c r="M35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N35" s="15">
+      <c r="M35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" s="7">
         <v>8354.82</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="7">
         <v>23814</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S35" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T35" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U35" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U35" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2020</v>
       </c>
       <c r="B36" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C36" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D36" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4">
         <v>121001</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="13" t="s">
+      <c r="F36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="7">
+      <c r="H36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="6">
         <v>44081</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <v>44183</v>
       </c>
-      <c r="M36" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N36" s="15">
+      <c r="M36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" s="7">
         <v>9881.16</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="7">
         <v>27783</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S36" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T36" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U36" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U36" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
       <c r="B37" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C37" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D37" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="4">
         <v>121001</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="7">
+      <c r="F37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K37" s="6">
         <v>44081</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <v>44183</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="7">
         <v>5878.24</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="7">
         <v>17010</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S37" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T37" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U37" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U37" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2020</v>
       </c>
       <c r="B38" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C38" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D38" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="4">
         <v>121001</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="7">
+      <c r="F38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" s="6">
         <v>44081</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <v>44183</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="7">
         <v>22680</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S38" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T38" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U38" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U38" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2020</v>
       </c>
       <c r="B39" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C39" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="4">
         <v>121001</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="7">
+      <c r="F39" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="6">
         <v>44081</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <v>44183</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="7">
         <v>22680</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R39" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S39" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T39" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U39" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U39" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2020</v>
       </c>
       <c r="B40" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C40" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="4">
         <v>121001</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="7">
+      <c r="F40" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" s="6">
         <v>44081</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <v>44183</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O40" s="7">
         <v>22680</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S40" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T40" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U40" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U40" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2020</v>
       </c>
       <c r="B41" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C41" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D41" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="4">
         <v>121001</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="7">
+      <c r="F41" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K41" s="6">
         <v>44081</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <v>44183</v>
       </c>
-      <c r="M41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N41" s="15">
+      <c r="M41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" s="7">
         <v>9365.9599999999991</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O41" s="7">
         <v>26460</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S41" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T41" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U41" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U41" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2020</v>
       </c>
       <c r="B42" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C42" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D42" s="6" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="4">
         <v>121001</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="7">
+      <c r="F42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K42" s="6">
         <v>44081</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <v>44183</v>
       </c>
-      <c r="M42" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="N42" s="15">
+      <c r="M42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" s="7">
         <v>10859.58</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="7">
         <v>30240</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S42" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T42" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U42" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U42" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2020</v>
       </c>
       <c r="B43" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C43" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D43" s="10" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="11">
         <v>121001</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="7">
+      <c r="F43" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" s="6">
         <v>44081</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <v>44183</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="7">
         <v>7942.04</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O43" s="7">
         <v>22080</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>60</v>
       </c>
       <c r="S43" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="T43" s="3">
-        <v>44114</v>
-      </c>
-      <c r="U43" s="12" t="s">
+        <v>44206</v>
+      </c>
+      <c r="U43" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3467,52 +3630,86 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="Q8" r:id="rId3"/>
-    <hyperlink ref="Q9" r:id="rId4"/>
-    <hyperlink ref="Q10" r:id="rId5"/>
-    <hyperlink ref="Q11" r:id="rId6"/>
-    <hyperlink ref="Q12" r:id="rId7"/>
-    <hyperlink ref="Q13" r:id="rId8"/>
-    <hyperlink ref="Q14" r:id="rId9"/>
-    <hyperlink ref="Q15" r:id="rId10"/>
-    <hyperlink ref="Q16" r:id="rId11"/>
-    <hyperlink ref="Q17" r:id="rId12"/>
-    <hyperlink ref="Q18" r:id="rId13"/>
-    <hyperlink ref="Q19" r:id="rId14"/>
-    <hyperlink ref="Q20" r:id="rId15"/>
-    <hyperlink ref="Q21" r:id="rId16"/>
-    <hyperlink ref="Q22" r:id="rId17"/>
-    <hyperlink ref="Q23" r:id="rId18"/>
-    <hyperlink ref="Q24" r:id="rId19"/>
-    <hyperlink ref="Q25" r:id="rId20"/>
-    <hyperlink ref="Q26" r:id="rId21"/>
-    <hyperlink ref="Q27" r:id="rId22"/>
-    <hyperlink ref="Q28" r:id="rId23"/>
-    <hyperlink ref="Q29" r:id="rId24"/>
-    <hyperlink ref="Q30" r:id="rId25"/>
-    <hyperlink ref="Q31" r:id="rId26"/>
-    <hyperlink ref="Q32" r:id="rId27"/>
-    <hyperlink ref="Q33" r:id="rId28"/>
-    <hyperlink ref="Q34" r:id="rId29"/>
-    <hyperlink ref="Q35" r:id="rId30"/>
-    <hyperlink ref="Q36" r:id="rId31"/>
-    <hyperlink ref="Q37" r:id="rId32"/>
-    <hyperlink ref="Q38" r:id="rId33"/>
-    <hyperlink ref="Q39" r:id="rId34"/>
-    <hyperlink ref="Q40" r:id="rId35"/>
-    <hyperlink ref="Q41" r:id="rId36"/>
-    <hyperlink ref="Q42" r:id="rId37"/>
-    <hyperlink ref="Q43" r:id="rId38"/>
+    <hyperlink ref="Q8:Q31" r:id="rId1" display="http://www.upp.edu.mx/normatividad/wp-content/uploads/2014/11/Reglamento-Interno-Mar_2014.pdf"/>
+    <hyperlink ref="Q9" r:id="rId2"/>
+    <hyperlink ref="Q10" r:id="rId3"/>
+    <hyperlink ref="Q11" r:id="rId4"/>
+    <hyperlink ref="Q13" r:id="rId5"/>
+    <hyperlink ref="Q14" r:id="rId6"/>
+    <hyperlink ref="Q16" r:id="rId7"/>
+    <hyperlink ref="Q17" r:id="rId8"/>
+    <hyperlink ref="Q18" r:id="rId9"/>
+    <hyperlink ref="Q19" r:id="rId10"/>
+    <hyperlink ref="Q20" r:id="rId11"/>
+    <hyperlink ref="Q21" r:id="rId12"/>
+    <hyperlink ref="Q22" r:id="rId13"/>
+    <hyperlink ref="Q23" r:id="rId14"/>
+    <hyperlink ref="Q24" r:id="rId15"/>
+    <hyperlink ref="Q25" r:id="rId16"/>
+    <hyperlink ref="Q26" r:id="rId17"/>
+    <hyperlink ref="Q27" r:id="rId18"/>
+    <hyperlink ref="Q28" r:id="rId19"/>
+    <hyperlink ref="Q29" r:id="rId20"/>
+    <hyperlink ref="Q30" r:id="rId21"/>
+    <hyperlink ref="Q31" r:id="rId22"/>
+    <hyperlink ref="Q32" r:id="rId23"/>
+    <hyperlink ref="Q33" r:id="rId24"/>
+    <hyperlink ref="Q34" r:id="rId25"/>
+    <hyperlink ref="Q35" r:id="rId26"/>
+    <hyperlink ref="Q36" r:id="rId27"/>
+    <hyperlink ref="Q37" r:id="rId28"/>
+    <hyperlink ref="Q38" r:id="rId29"/>
+    <hyperlink ref="Q39" r:id="rId30"/>
+    <hyperlink ref="Q40" r:id="rId31"/>
+    <hyperlink ref="Q41" r:id="rId32"/>
+    <hyperlink ref="Q42" r:id="rId33"/>
+    <hyperlink ref="Q12" r:id="rId34"/>
+    <hyperlink ref="Q43" r:id="rId35"/>
+    <hyperlink ref="Q15" r:id="rId36"/>
+    <hyperlink ref="J9" r:id="rId37"/>
+    <hyperlink ref="J8" r:id="rId38"/>
+    <hyperlink ref="J10" r:id="rId39"/>
+    <hyperlink ref="J11" r:id="rId40"/>
+    <hyperlink ref="J13" r:id="rId41"/>
+    <hyperlink ref="J14" r:id="rId42"/>
+    <hyperlink ref="J15" r:id="rId43"/>
+    <hyperlink ref="J16" r:id="rId44"/>
+    <hyperlink ref="J17" r:id="rId45"/>
+    <hyperlink ref="J18" r:id="rId46"/>
+    <hyperlink ref="J19" r:id="rId47"/>
+    <hyperlink ref="J20" r:id="rId48"/>
+    <hyperlink ref="J21" r:id="rId49"/>
+    <hyperlink ref="J22" r:id="rId50"/>
+    <hyperlink ref="J23" r:id="rId51"/>
+    <hyperlink ref="J24" r:id="rId52"/>
+    <hyperlink ref="J25" r:id="rId53"/>
+    <hyperlink ref="J26" r:id="rId54"/>
+    <hyperlink ref="J27" r:id="rId55"/>
+    <hyperlink ref="J28" r:id="rId56"/>
+    <hyperlink ref="J29" r:id="rId57"/>
+    <hyperlink ref="J30" r:id="rId58"/>
+    <hyperlink ref="J31" r:id="rId59"/>
+    <hyperlink ref="J32" r:id="rId60"/>
+    <hyperlink ref="J33" r:id="rId61"/>
+    <hyperlink ref="J34" r:id="rId62"/>
+    <hyperlink ref="J35" r:id="rId63"/>
+    <hyperlink ref="J36" r:id="rId64"/>
+    <hyperlink ref="J37" r:id="rId65"/>
+    <hyperlink ref="J38" r:id="rId66"/>
+    <hyperlink ref="J39" r:id="rId67"/>
+    <hyperlink ref="J40" r:id="rId68"/>
+    <hyperlink ref="J41" r:id="rId69"/>
+    <hyperlink ref="J42" r:id="rId70"/>
+    <hyperlink ref="J43" r:id="rId71"/>
+    <hyperlink ref="J12" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -3523,14 +3720,17 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="17" t="s">
         <v>59</v>
       </c>
     </row>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\FRACCIONES COMUNES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="85.85546875" customWidth="1"/>
+    <col min="10" max="10" width="97.5703125" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" customWidth="1"/>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\FRACCIONES COMUNES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="203">
   <si>
     <t>44234</t>
   </si>
@@ -205,443 +205,439 @@
     <t>Servicios profesionales por honorarios asimilados a salarios</t>
   </si>
   <si>
+    <t>Verónica</t>
+  </si>
+  <si>
+    <t>Bautista</t>
+  </si>
+  <si>
+    <t>Ruíz</t>
+  </si>
+  <si>
+    <t>Albino</t>
+  </si>
+  <si>
+    <t>Ahumada</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>Clemente Rodolfo</t>
+  </si>
+  <si>
+    <t>Chacón</t>
+  </si>
+  <si>
+    <t>Graille</t>
+  </si>
+  <si>
+    <t>Trinidad Leticia</t>
+  </si>
+  <si>
+    <t>Rosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramírez </t>
+  </si>
+  <si>
+    <t>José Arturo</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Fernando Roberto</t>
+  </si>
+  <si>
+    <t>Tobón</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>Misael</t>
+  </si>
+  <si>
+    <t>Fragoso</t>
+  </si>
+  <si>
+    <t>Camarillo</t>
+  </si>
+  <si>
+    <t>Reyna Juana</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Álvaro Octavio</t>
+  </si>
+  <si>
+    <t>Batrez</t>
+  </si>
+  <si>
+    <t>de la Paz</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Trillo</t>
+  </si>
+  <si>
+    <t>Cosio</t>
+  </si>
+  <si>
+    <t>Erick</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Vázquez</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>Armenta</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Alma Rosa</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez </t>
+  </si>
+  <si>
+    <t>Nájera</t>
+  </si>
+  <si>
+    <t>Erick Alexis</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Tapia</t>
+  </si>
+  <si>
+    <t>Karina</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montiel </t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>De la Vega</t>
+  </si>
+  <si>
+    <t>Ángeles</t>
+  </si>
+  <si>
+    <t>Diana Laura</t>
+  </si>
+  <si>
+    <t>Cuellar</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santander </t>
+  </si>
+  <si>
+    <t>Baños</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Juan Antonio</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Edwin Armando</t>
+  </si>
+  <si>
+    <t>Ambriz</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t>Julio César</t>
+  </si>
+  <si>
+    <t>De Dios</t>
+  </si>
+  <si>
+    <t>Javier Héctor</t>
+  </si>
+  <si>
+    <t>Larios</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Gaspar</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Francisco David</t>
+  </si>
+  <si>
+    <t>Reynoso</t>
+  </si>
+  <si>
+    <t>Yessica</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Jocelyn Alejandra</t>
+  </si>
+  <si>
+    <t>Cordero</t>
+  </si>
+  <si>
+    <t>Tania Ofelia</t>
+  </si>
+  <si>
+    <t>Zerón</t>
+  </si>
+  <si>
+    <t>Guadalupe Lorena</t>
+  </si>
+  <si>
+    <t>Cerón</t>
+  </si>
+  <si>
+    <t>Ríos</t>
+  </si>
+  <si>
+    <t>Milton Hildeberto</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Luis Gerardo</t>
+  </si>
+  <si>
+    <t>Trujillo</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Argueta</t>
+  </si>
+  <si>
+    <t>Profesor por asignatura A</t>
+  </si>
+  <si>
+    <t>Profr Investigador Titular B</t>
+  </si>
+  <si>
+    <t>Jefe de Oficina C</t>
+  </si>
+  <si>
+    <t>Profesor por asignatura B</t>
+  </si>
+  <si>
+    <t>Profesor por asignatura C</t>
+  </si>
+  <si>
+    <t>Maria Guadalupe</t>
+  </si>
+  <si>
+    <t>Maria de la Luz</t>
+  </si>
+  <si>
+    <t>Yáñez</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo.</t>
+  </si>
+  <si>
+    <t>ISSSTE</t>
+  </si>
+  <si>
+    <t>La institución no genera números de contratos para el personal contratados por honorarios.</t>
+  </si>
+  <si>
+    <t>http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf</t>
+  </si>
+  <si>
     <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
   <si>
-    <t>Verónica</t>
-  </si>
-  <si>
-    <t>Bautista</t>
-  </si>
-  <si>
-    <t>Ruíz</t>
-  </si>
-  <si>
-    <t>Profesor por asignatura A</t>
-  </si>
-  <si>
-    <t>ISSSTE</t>
-  </si>
-  <si>
-    <t>http://www.upp.edu.mx/normatividad/wp-content/uploads/2014/11/Reglamento-Interno-Mar_2014.pdf</t>
-  </si>
-  <si>
-    <t>Albino</t>
-  </si>
-  <si>
-    <t>Ahumada</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>Profr Investigador Titular B</t>
-  </si>
-  <si>
-    <t>Clemente Rodolfo</t>
-  </si>
-  <si>
-    <t>Chacón</t>
-  </si>
-  <si>
-    <t>Graille</t>
-  </si>
-  <si>
-    <t>Jefe de Oficina C</t>
-  </si>
-  <si>
-    <t>Trinidad Leticia</t>
-  </si>
-  <si>
-    <t>Rosas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramírez </t>
-  </si>
-  <si>
-    <t>Profesor por asignatura B</t>
-  </si>
-  <si>
-    <t>José Arturo</t>
-  </si>
-  <si>
-    <t>Herrera</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>Fernando Roberto</t>
-  </si>
-  <si>
-    <t>Tobón</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>Misael</t>
-  </si>
-  <si>
-    <t>Fragoso</t>
-  </si>
-  <si>
-    <t>Camarillo</t>
-  </si>
-  <si>
-    <t>Reyna Juana</t>
-  </si>
-  <si>
-    <t>Monroy</t>
-  </si>
-  <si>
-    <t>Barrera</t>
-  </si>
-  <si>
-    <t>Álvaro Octavio</t>
-  </si>
-  <si>
-    <t>Batrez</t>
-  </si>
-  <si>
-    <t>de la Paz</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>Trillo</t>
-  </si>
-  <si>
-    <t>Cosio</t>
-  </si>
-  <si>
-    <t>Erick</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>Vázquez</t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>Armenta</t>
-  </si>
-  <si>
-    <t>Kenia Yazmin</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>Perusquia</t>
-  </si>
-  <si>
-    <t>Alma Rosa</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Carrasco</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pérez </t>
-  </si>
-  <si>
-    <t>Nájera</t>
-  </si>
-  <si>
-    <t>Erick Alexis</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>Tapia</t>
-  </si>
-  <si>
-    <t>Karina</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montiel </t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>De la Vega</t>
-  </si>
-  <si>
-    <t>Ángeles</t>
-  </si>
-  <si>
-    <t>Diana Laura</t>
-  </si>
-  <si>
-    <t>Cuellar</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Fredy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santander </t>
-  </si>
-  <si>
-    <t>Baños</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>Hinojosa</t>
-  </si>
-  <si>
-    <t>Julio Gerardo</t>
-  </si>
-  <si>
-    <t>Duran</t>
-  </si>
-  <si>
-    <t>Candelaria</t>
-  </si>
-  <si>
-    <t>Juan Antonio</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>Edwin Armando</t>
-  </si>
-  <si>
-    <t>Ambriz</t>
-  </si>
-  <si>
-    <t>Muñoz</t>
-  </si>
-  <si>
-    <t>Julio César</t>
-  </si>
-  <si>
-    <t>De Dios</t>
-  </si>
-  <si>
-    <t>Javier Héctor</t>
-  </si>
-  <si>
-    <t>Larios</t>
-  </si>
-  <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>Gaspar</t>
-  </si>
-  <si>
-    <t>Vargas</t>
-  </si>
-  <si>
-    <t>Francisco David</t>
-  </si>
-  <si>
-    <t>Reynoso</t>
-  </si>
-  <si>
-    <t>Yessica</t>
-  </si>
-  <si>
-    <t>Salazar</t>
-  </si>
-  <si>
-    <t>Jocelyn Alejandra</t>
-  </si>
-  <si>
-    <t>Cordero</t>
-  </si>
-  <si>
-    <t>Tania Ofelia</t>
-  </si>
-  <si>
-    <t>Zerón</t>
-  </si>
-  <si>
-    <t>Guadalupe Lorena</t>
-  </si>
-  <si>
-    <t>Cerón</t>
-  </si>
-  <si>
-    <t>Ríos</t>
-  </si>
-  <si>
-    <t>Milton Hildeberto</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
-    <t>Luis Gerardo</t>
-  </si>
-  <si>
-    <t>Trujillo</t>
-  </si>
-  <si>
-    <t>Franco</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Profesor por asignatura C</t>
-  </si>
-  <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>Argueta</t>
-  </si>
-  <si>
-    <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13JzDAOtd-C4b76iD7fwNYi38K9vrjHs6/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ip1ZbdjNoiynWAnbgYxPVEhxUGL4Q5GC/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/183xOEA8EqZMr87g_R9D_GPAPDCDBXnNn/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cxvxLxvmiTyjK6tjC3GifF4cjm3P3E53/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TJqjEdxnodxjJXxOq5SffbK7MU53oNKM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12K0wkJEpM88j2UtX-HeiJ1kXD_PPneoW/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pgdxJErrYEimwuSQln8ffIeWfWqssbSm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cNQ4aVTruh4VckfRfIXsAmmyaYe14TiN/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GMIe18QNrK35SsYduoNTYkAWvRm7ULUZ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ADbq-qI4BCX-r4pZsliO8wSoBu2bEpqL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1B4JtJz945jshB5koItcXYxBOEe1b_ieX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CwjBnmcPc06PgPQhrDcgKUt3-fpUs4pQ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10NYYDDNYx2CvlC5fygBKRiWaKOeFonzM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VDS-F-F29NxX-FCd9ct0d1CyuvLBPSkM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OQRJKirPC8ETg7Vid2HXbugWHarP_fyK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kGog23lllp9fc833sNA_Oy9t3aTU1CbY/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rBnHOoJjzltkIk8dG_UhHAyDT_dOFB1H/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qvHZIhb1-M6QaAuYdDmbpkVu9La25ZDC/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11b1gv7f9Dxy45pF-DR2J9Ymd3Z-et96l/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12YujP8qooPjFiorbZXbfkI79aBm2ySyJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_kKtGgYWqkpap_cbdXmAHhQOGLmn4GaA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lZbOgxQvmvwawsSlGVDu3ox4h0H-N8v1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1G3qQv1b_mVON6DdW4da8FlQ7r6Ta9jpQ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ivzzj4HZDCwhr7SgX3cigDKrBfbIF27a/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Th-zPl4nnWKol71Pje6ajJahWPfGBC9m/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qIlYSB6FFJ71A1lP7M4KrGGK67VnORDv/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vQlMj5OcdzJxjUNZLScX6YaWtzgZCY0T/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1W3F3RhJySBr0cjJagu_y8bAztngrdOhJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1shoigk7geM1bvX9cB7zYFzKiIeJKpDhF/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wU1TZMY8UvbyLRPvWyizIy0bWQ9Calin/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/119eDeB8RcXd3s1p0nIR5FGCfGwEu-9IO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1g0Vw6rjLJ6oeFMQ3wFbUc6V9Snkfi5bx/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OyzNVRFsqEAQCZ0wYbUlGRjEEPnjszxl/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YULBExIKUPBvp5UPgmOexYtBrIwQ5pjy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1PxWETBA6cre32Hf_oJ506Iz-LmM529ir/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fHfhZtbczEZLtc8CPnZxkC7UuOv2vhZK/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1ZHtMWQ5QM4zwsleumxtddFBd3yj-QhBw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hD_uYuYVRyACedXarNHFDKDNAm5Qu4r1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Rp9V0mFjzYjQXtWrFbneMS2YUMSdC3Zm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZXZq_T-pPIGDKcB-TXhaCJLvJXpB0Iz-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Vpf62zwyVHrp9-41XzBxMewxq20Sh2Cm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sifZQtJLqydQyLayGYdI5U8cp75g5huK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZRa3wp-XHi1g0Q1AfSOIsvQAtHAJKUyl/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16zBVTa2J2Y6rS26857inLt_bQW-Fa0JN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12imTrC7b30SoTvohDYUNR812irC_vAZQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cDxoaYA_WeME5OGkoe8D4JGzLq3GDGGz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IylADZuWKtGa_VZzInzVvnmQtQKEz97k/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FC7pAHmrRNYHxGcyCeazBVi8fzJCnaDB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fy4fRPdVhpax836bAxdcaDQLWMkEz0Ys/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10omEPVtgL5IB3T2QVZOODoSeB5HNaYwR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DbU0YfVyosGv9UnRyfXM3MaalcYgFHZ8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DsSVl4nCBGk5dHHY53-jzNSkaIZ3TXJv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uA-mhaUGwj1Yfdx2WkxqA8SYgSr-q6cH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1znMg_AFN4mgAMdaDaqaQ1UOS3KjgHQDJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lVTQ3o9UTOKbKgCrfHNGKMRhqFaKC0es/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1m8LfcJAIfctjX4eDlwt2LZtAoB5L1GmT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vGxdfwdHu8CgCqAK8rMYzA9U3Bx-8fWE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Xv_dPdsDcX5mrW6tpISwz7pgDcmsOXuL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uqrW3TqodI0vhe5eUCR1AAvlhpZc2nCJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WqFt_fWgpdJOquKttgU0AZEc7ToXblNb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qjFRiBWNSZnJogS82N_Sp3uiPfNxZofo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tiawOBU0CskbXmz5oYJeG10n_vIskL7R/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11FtBHHyDRxa7U_e5aS0NM1emOqm9t21h/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DpmXU4yhHgwZ7EpYe4jKXC-n_EcYLMRS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-z3G8X3hvJUzPquFhYOVlvaCfkh54CLL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Qlo2buLQ76M1OQDCz7XiBv1YyyLAdekD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11Ld2AGRAiP_RF2JaGcrJZjczqOEu3hjH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HAL2fN_1PVNMm_F3dLd63JM_Qc8Lo6uv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NPrFi-YKydM_fpLKyBZm3V-Tlp6tKsZH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vf6HtFTHfz9rlvQZtUzQ2buNYb8TdMp-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1K95Iys7KM61WhaGN7k-OsY4QVonZr1eH/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Riqaq9LaLfKcTjsqdcAoDAHu2aNJD-iZ/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,7 +665,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -722,9 +717,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -744,37 +742,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,6 +764,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,24 +1060,24 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="97.5703125" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
-    <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="80" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="53.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="14" max="14" width="41.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="55.7109375" customWidth="1"/>
+    <col min="18" max="18" width="73.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -1104,38 +1086,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1268,29 +1250,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1359,2264 +1341,2262 @@
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>121001</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="10" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="K8" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L8" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6290.98</v>
-      </c>
-      <c r="O8" s="7">
-        <v>18144</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="16">
+        <v>23369.759999999998</v>
+      </c>
+      <c r="O8" s="16">
+        <v>20886.719999999998</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C9" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="4">
         <v>121001</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="10" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="K9" s="6">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="L9" s="6">
-        <v>44196</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="7">
-        <v>22738.5</v>
-      </c>
-      <c r="O9" s="7">
-        <v>67112.5</v>
-      </c>
-      <c r="P9" s="8"/>
+        <v>44377</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="16">
+        <v>90843.520000000004</v>
+      </c>
+      <c r="O9" s="16">
+        <v>90843.520000000004</v>
+      </c>
+      <c r="P9" s="2"/>
       <c r="Q9" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S9" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T9" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C10" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D10" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="4">
         <v>121001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="10" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="K10" s="6">
-        <v>44013</v>
+        <v>44197</v>
       </c>
       <c r="L10" s="6">
-        <v>44196</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="7">
-        <v>14053.34</v>
-      </c>
-      <c r="O10" s="7">
-        <v>43207.5</v>
-      </c>
-      <c r="P10" s="8"/>
+        <v>44377</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="16">
+        <v>56102.96</v>
+      </c>
+      <c r="O10" s="16">
+        <v>56102.96</v>
+      </c>
+      <c r="P10" s="2"/>
       <c r="Q10" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S10" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T10" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C11" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D11" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="4">
         <v>121001</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K11" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L11" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9881.16</v>
-      </c>
-      <c r="O11" s="7">
-        <v>27783</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="16">
+        <v>39096.32</v>
+      </c>
+      <c r="O11" s="16">
+        <v>34942.400000000001</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S11" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T11" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C12" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D12" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="4">
         <v>121001</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="16" t="s">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="K12" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L12" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6703.76</v>
-      </c>
-      <c r="O12" s="7">
-        <v>19278</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" s="16">
+        <v>23369.759999999998</v>
+      </c>
+      <c r="O12" s="16">
+        <v>20886.719999999998</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S12" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T12" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C13" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D13" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="4">
         <v>121001</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="10" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="K13" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L13" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O13" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N13" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O13" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S13" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T13" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C14" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D14" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="4">
         <v>121001</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K14" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L14" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O14" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N14" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O14" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S14" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T14" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C15" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D15" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>121001</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K15" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L15" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1356.92</v>
-      </c>
-      <c r="O15" s="7">
-        <v>4536</v>
-      </c>
-      <c r="P15" s="8"/>
+        <v>44316</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" s="16">
+        <v>5415.04</v>
+      </c>
+      <c r="O15" s="16">
+        <v>5415.04</v>
+      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S15" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T15" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C16" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D16" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="4">
         <v>121001</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K16" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L16" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O16" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N16" s="16">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O16" s="16">
+        <v>29740.559999999998</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S16" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T16" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C17" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D17" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4">
         <v>121001</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K17" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L17" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O17" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N17" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O17" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S17" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T17" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C18" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D18" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="4">
         <v>121001</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K18" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L18" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9881.16</v>
-      </c>
-      <c r="O18" s="7">
-        <v>27783</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="16">
+        <v>39096.32</v>
+      </c>
+      <c r="O18" s="16">
+        <v>34942.400000000001</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S18" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T18" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C19" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D19" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="4">
         <v>121001</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K19" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L19" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O19" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N19" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O19" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S19" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T19" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C20" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D20" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="4">
         <v>121001</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K20" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L20" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5465.44</v>
-      </c>
-      <c r="O20" s="7">
-        <v>15876</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="16">
+        <v>37128.720000000001</v>
+      </c>
+      <c r="O20" s="16">
+        <v>33183.68</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S20" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T20" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C21" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D21" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="4">
         <v>121001</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K21" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L21" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7391.7</v>
-      </c>
-      <c r="O21" s="7">
-        <v>21168</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" s="16">
+        <v>25020.959999999999</v>
+      </c>
+      <c r="O21" s="16">
+        <v>22362.399999999998</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S21" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T21" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C22" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D22" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="4">
         <v>121001</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K22" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L22" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O22" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O22" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S22" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T22" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C23" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D23" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="4">
         <v>121001</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K23" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L23" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O23" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" s="16">
+        <v>28323.040000000001</v>
+      </c>
+      <c r="O23" s="16">
+        <v>25313.68</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S23" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T23" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C24" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D24" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4">
         <v>121001</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K24" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L24" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5878.24</v>
-      </c>
-      <c r="O24" s="7">
-        <v>17010</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N24" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O24" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S24" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T24" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C25" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D25" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="4">
         <v>121001</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K25" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L25" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N25" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O25" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O25" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S25" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T25" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C26" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D26" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="4">
         <v>121001</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K26" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L26" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O26" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N26" s="16">
+        <v>25571.200000000001</v>
+      </c>
+      <c r="O26" s="16">
+        <v>22854.240000000002</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S26" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T26" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C27" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D27" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4">
         <v>121001</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K27" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L27" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N27" s="7">
-        <v>8354.82</v>
-      </c>
-      <c r="O27" s="7">
-        <v>23814</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N27" s="16">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O27" s="16">
+        <v>29740.559999999998</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S27" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T27" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C28" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D28" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="4">
         <v>121001</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I28" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="10" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="K28" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L28" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N28" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O28" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N28" s="16">
+        <v>37128.720000000001</v>
+      </c>
+      <c r="O28" s="16">
+        <v>33183.68</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S28" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T28" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U28" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C29" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D29" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="4">
         <v>121001</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K29" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L29" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N29" s="7">
-        <v>5878.24</v>
-      </c>
-      <c r="O29" s="7">
-        <v>17010</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O29" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S29" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T29" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C30" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D30" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="4">
         <v>121001</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K30" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L30" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N30" s="7">
-        <v>7873.24</v>
-      </c>
-      <c r="O30" s="7">
-        <v>22491</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" s="16">
+        <v>28323.040000000001</v>
+      </c>
+      <c r="O30" s="16">
+        <v>25313.68</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S30" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T30" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C31" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D31" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="4">
         <v>121001</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K31" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L31" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N31" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O31" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O31" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S31" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T31" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C32" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D32" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="4">
         <v>121001</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K32" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L32" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N32" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O32" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N32" s="16">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O32" s="16">
+        <v>29740.559999999998</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S32" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T32" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C33" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D33" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="4">
         <v>121001</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="I33" s="2"/>
       <c r="J33" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K33" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L33" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N33" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O33" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N33" s="16">
+        <v>39096.32</v>
+      </c>
+      <c r="O33" s="16">
+        <v>34942.400000000001</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S33" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T33" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C34" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D34" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="4">
         <v>121001</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="10" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K34" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L34" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N34" s="7">
-        <v>8354.82</v>
-      </c>
-      <c r="O34" s="7">
-        <v>23814</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N34" s="16">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O34" s="16">
+        <v>29740.559999999998</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S34" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T34" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C35" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D35" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="4">
         <v>121001</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K35" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L35" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N35" s="7">
-        <v>8354.82</v>
-      </c>
-      <c r="O35" s="7">
-        <v>23814</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N35" s="16">
+        <v>23369.759999999998</v>
+      </c>
+      <c r="O35" s="16">
+        <v>20886.719999999998</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S35" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T35" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U35" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C36" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D36" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4">
         <v>121001</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K36" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L36" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N36" s="7">
-        <v>9881.16</v>
-      </c>
-      <c r="O36" s="7">
-        <v>27783</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N36" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O36" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S36" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T36" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C37" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D37" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="4">
         <v>121001</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K37" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L37" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N37" s="7">
-        <v>5878.24</v>
-      </c>
-      <c r="O37" s="7">
-        <v>17010</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N37" s="16">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O37" s="16">
+        <v>29740.559999999998</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S37" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T37" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C38" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D38" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="4">
         <v>121001</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I38" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="I38" s="2"/>
       <c r="J38" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K38" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L38" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N38" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O38" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N38" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O38" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S38" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T38" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C39" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D39" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="4">
         <v>121001</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K39" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L39" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O39" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39" s="16">
+        <v>37128.720000000001</v>
+      </c>
+      <c r="O39" s="16">
+        <v>33183.68</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S39" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T39" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U39" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C40" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D40" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="4">
         <v>121001</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="6">
+        <v>44203</v>
+      </c>
+      <c r="L40" s="6">
+        <v>44316</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K40" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L40" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N40" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O40" s="7">
-        <v>22680</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>65</v>
+      <c r="N40" s="16">
+        <v>42923.28</v>
+      </c>
+      <c r="O40" s="16">
+        <v>38362.720000000001</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S40" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T40" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C41" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D41" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="4">
         <v>121001</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="I41" s="2"/>
       <c r="J41" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K41" s="6">
-        <v>44081</v>
+        <v>44203</v>
       </c>
       <c r="L41" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N41" s="7">
-        <v>9365.9599999999991</v>
-      </c>
-      <c r="O41" s="7">
-        <v>26460</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="N41" s="16">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O41" s="16">
+        <v>28264.959999999999</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S41" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T41" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C42" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D42" s="14" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="4">
         <v>121001</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K42" s="6">
-        <v>44081</v>
+        <v>44209</v>
       </c>
       <c r="L42" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N42" s="7">
-        <v>10859.58</v>
-      </c>
-      <c r="O42" s="7">
-        <v>30240</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>65</v>
+        <v>44316</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N42" s="16">
+        <v>21727.52</v>
+      </c>
+      <c r="O42" s="16">
+        <v>19419.04</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S42" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T42" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C43" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D43" s="15" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="4">
         <v>121001</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K43" s="6">
+        <v>44203</v>
+      </c>
+      <c r="L43" s="6">
+        <v>44316</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N43" s="16">
+        <v>5415.04</v>
+      </c>
+      <c r="O43" s="16">
+        <v>5415.04</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="K43" s="6">
-        <v>44081</v>
-      </c>
-      <c r="L43" s="6">
-        <v>44183</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N43" s="7">
-        <v>7942.04</v>
-      </c>
-      <c r="O43" s="7">
-        <v>22080</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="R43" s="4" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="S43" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="T43" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>166</v>
+        <v>44298</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3630,86 +3610,51 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D43">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q8:Q31" r:id="rId1" display="http://www.upp.edu.mx/normatividad/wp-content/uploads/2014/11/Reglamento-Interno-Mar_2014.pdf"/>
-    <hyperlink ref="Q9" r:id="rId2"/>
-    <hyperlink ref="Q10" r:id="rId3"/>
-    <hyperlink ref="Q11" r:id="rId4"/>
-    <hyperlink ref="Q13" r:id="rId5"/>
-    <hyperlink ref="Q14" r:id="rId6"/>
-    <hyperlink ref="Q16" r:id="rId7"/>
-    <hyperlink ref="Q17" r:id="rId8"/>
-    <hyperlink ref="Q18" r:id="rId9"/>
-    <hyperlink ref="Q19" r:id="rId10"/>
-    <hyperlink ref="Q20" r:id="rId11"/>
-    <hyperlink ref="Q21" r:id="rId12"/>
-    <hyperlink ref="Q22" r:id="rId13"/>
-    <hyperlink ref="Q23" r:id="rId14"/>
-    <hyperlink ref="Q24" r:id="rId15"/>
-    <hyperlink ref="Q25" r:id="rId16"/>
-    <hyperlink ref="Q26" r:id="rId17"/>
-    <hyperlink ref="Q27" r:id="rId18"/>
-    <hyperlink ref="Q28" r:id="rId19"/>
-    <hyperlink ref="Q29" r:id="rId20"/>
-    <hyperlink ref="Q30" r:id="rId21"/>
-    <hyperlink ref="Q31" r:id="rId22"/>
-    <hyperlink ref="Q32" r:id="rId23"/>
-    <hyperlink ref="Q33" r:id="rId24"/>
-    <hyperlink ref="Q34" r:id="rId25"/>
-    <hyperlink ref="Q35" r:id="rId26"/>
-    <hyperlink ref="Q36" r:id="rId27"/>
-    <hyperlink ref="Q37" r:id="rId28"/>
-    <hyperlink ref="Q38" r:id="rId29"/>
-    <hyperlink ref="Q39" r:id="rId30"/>
-    <hyperlink ref="Q40" r:id="rId31"/>
-    <hyperlink ref="Q41" r:id="rId32"/>
-    <hyperlink ref="Q42" r:id="rId33"/>
-    <hyperlink ref="Q12" r:id="rId34"/>
-    <hyperlink ref="Q43" r:id="rId35"/>
-    <hyperlink ref="Q15" r:id="rId36"/>
-    <hyperlink ref="J9" r:id="rId37"/>
-    <hyperlink ref="J8" r:id="rId38"/>
-    <hyperlink ref="J10" r:id="rId39"/>
-    <hyperlink ref="J11" r:id="rId40"/>
-    <hyperlink ref="J13" r:id="rId41"/>
-    <hyperlink ref="J14" r:id="rId42"/>
-    <hyperlink ref="J15" r:id="rId43"/>
-    <hyperlink ref="J16" r:id="rId44"/>
-    <hyperlink ref="J17" r:id="rId45"/>
-    <hyperlink ref="J18" r:id="rId46"/>
-    <hyperlink ref="J19" r:id="rId47"/>
-    <hyperlink ref="J20" r:id="rId48"/>
-    <hyperlink ref="J21" r:id="rId49"/>
-    <hyperlink ref="J22" r:id="rId50"/>
-    <hyperlink ref="J23" r:id="rId51"/>
-    <hyperlink ref="J24" r:id="rId52"/>
-    <hyperlink ref="J25" r:id="rId53"/>
-    <hyperlink ref="J26" r:id="rId54"/>
-    <hyperlink ref="J27" r:id="rId55"/>
-    <hyperlink ref="J28" r:id="rId56"/>
-    <hyperlink ref="J29" r:id="rId57"/>
-    <hyperlink ref="J30" r:id="rId58"/>
-    <hyperlink ref="J31" r:id="rId59"/>
-    <hyperlink ref="J32" r:id="rId60"/>
-    <hyperlink ref="J33" r:id="rId61"/>
-    <hyperlink ref="J34" r:id="rId62"/>
-    <hyperlink ref="J35" r:id="rId63"/>
-    <hyperlink ref="J36" r:id="rId64"/>
-    <hyperlink ref="J37" r:id="rId65"/>
-    <hyperlink ref="J38" r:id="rId66"/>
-    <hyperlink ref="J39" r:id="rId67"/>
-    <hyperlink ref="J40" r:id="rId68"/>
-    <hyperlink ref="J41" r:id="rId69"/>
-    <hyperlink ref="J42" r:id="rId70"/>
-    <hyperlink ref="J43" r:id="rId71"/>
-    <hyperlink ref="J12" r:id="rId72"/>
+    <hyperlink ref="Q8" r:id="rId1"/>
+    <hyperlink ref="Q9:Q43" r:id="rId2" display="http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J14" r:id="rId5"/>
+    <hyperlink ref="J15" r:id="rId6"/>
+    <hyperlink ref="J16" r:id="rId7"/>
+    <hyperlink ref="J17" r:id="rId8"/>
+    <hyperlink ref="J18" r:id="rId9"/>
+    <hyperlink ref="J19" r:id="rId10"/>
+    <hyperlink ref="J20" r:id="rId11"/>
+    <hyperlink ref="J21" r:id="rId12"/>
+    <hyperlink ref="J22" r:id="rId13"/>
+    <hyperlink ref="J23" r:id="rId14"/>
+    <hyperlink ref="J24" r:id="rId15"/>
+    <hyperlink ref="J25" r:id="rId16"/>
+    <hyperlink ref="J26" r:id="rId17"/>
+    <hyperlink ref="J27" r:id="rId18"/>
+    <hyperlink ref="J29" r:id="rId19"/>
+    <hyperlink ref="J30" r:id="rId20"/>
+    <hyperlink ref="J32" r:id="rId21"/>
+    <hyperlink ref="J33" r:id="rId22"/>
+    <hyperlink ref="J34" r:id="rId23"/>
+    <hyperlink ref="J35" r:id="rId24"/>
+    <hyperlink ref="J36" r:id="rId25"/>
+    <hyperlink ref="J37" r:id="rId26"/>
+    <hyperlink ref="J38" r:id="rId27"/>
+    <hyperlink ref="J39" r:id="rId28"/>
+    <hyperlink ref="J40" r:id="rId29"/>
+    <hyperlink ref="J41" r:id="rId30"/>
+    <hyperlink ref="J42" r:id="rId31"/>
+    <hyperlink ref="J9" r:id="rId32"/>
+    <hyperlink ref="J10" r:id="rId33"/>
+    <hyperlink ref="J12" r:id="rId34"/>
+    <hyperlink ref="J13" r:id="rId35"/>
+    <hyperlink ref="J28" r:id="rId36"/>
+    <hyperlink ref="J31" r:id="rId37"/>
+    <hyperlink ref="J43" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -3717,20 +3662,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 1ER\1er Trimestre 2021 SIPOT  Pagina Oficial UPP\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -754,6 +754,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,9 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1051,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1073,7 +1073,7 @@
     <col min="14" max="14" width="41.85546875" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="55.7109375" customWidth="1"/>
+    <col min="17" max="17" width="105.28515625" customWidth="1"/>
     <col min="18" max="18" width="73.140625" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
@@ -1086,38 +1086,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1250,29 +1250,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1377,10 +1377,10 @@
       <c r="M8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="11">
         <v>23369.759999999998</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="11">
         <v>20886.719999999998</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -1440,10 +1440,10 @@
       <c r="M9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="11">
         <v>90843.520000000004</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="11">
         <v>90843.520000000004</v>
       </c>
       <c r="P9" s="2"/>
@@ -1501,10 +1501,10 @@
       <c r="M10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="11">
         <v>56102.96</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="11">
         <v>56102.96</v>
       </c>
       <c r="P10" s="2"/>
@@ -1562,10 +1562,10 @@
       <c r="M11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="11">
         <v>39096.32</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="11">
         <v>34942.400000000001</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1625,10 +1625,10 @@
       <c r="M12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="11">
         <v>23369.759999999998</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="11">
         <v>20886.719999999998</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -1688,10 +1688,10 @@
       <c r="M13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -1751,10 +1751,10 @@
       <c r="M14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -1814,10 +1814,10 @@
       <c r="M15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="11">
         <v>5415.04</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="11">
         <v>5415.04</v>
       </c>
       <c r="P15" s="2"/>
@@ -1875,10 +1875,10 @@
       <c r="M16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="11">
         <v>33276.239999999998</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="11">
         <v>29740.559999999998</v>
       </c>
       <c r="P16" s="2" t="s">
@@ -1938,10 +1938,10 @@
       <c r="M17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -2001,10 +2001,10 @@
       <c r="M18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="11">
         <v>39096.32</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="11">
         <v>34942.400000000001</v>
       </c>
       <c r="P18" s="2" t="s">
@@ -2064,10 +2064,10 @@
       <c r="M19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -2127,10 +2127,10 @@
       <c r="M20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="11">
         <v>37128.720000000001</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="11">
         <v>33183.68</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -2190,10 +2190,10 @@
       <c r="M21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="11">
         <v>25020.959999999999</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="11">
         <v>22362.399999999998</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -2253,10 +2253,10 @@
       <c r="M22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -2316,10 +2316,10 @@
       <c r="M23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="11">
         <v>28323.040000000001</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="11">
         <v>25313.68</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -2379,10 +2379,10 @@
       <c r="M24" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -2442,10 +2442,10 @@
       <c r="M25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P25" s="2" t="s">
@@ -2505,10 +2505,10 @@
       <c r="M26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="11">
         <v>25571.200000000001</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="11">
         <v>22854.240000000002</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -2568,10 +2568,10 @@
       <c r="M27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="11">
         <v>33276.239999999998</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="11">
         <v>29740.559999999998</v>
       </c>
       <c r="P27" s="2" t="s">
@@ -2631,10 +2631,10 @@
       <c r="M28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="11">
         <v>37128.720000000001</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="11">
         <v>33183.68</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -2694,10 +2694,10 @@
       <c r="M29" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P29" s="2" t="s">
@@ -2757,10 +2757,10 @@
       <c r="M30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="11">
         <v>28323.040000000001</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="11">
         <v>25313.68</v>
       </c>
       <c r="P30" s="2" t="s">
@@ -2820,10 +2820,10 @@
       <c r="M31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P31" s="2" t="s">
@@ -2883,10 +2883,10 @@
       <c r="M32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="11">
         <v>33276.239999999998</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="11">
         <v>29740.559999999998</v>
       </c>
       <c r="P32" s="2" t="s">
@@ -2946,10 +2946,10 @@
       <c r="M33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="11">
         <v>39096.32</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="11">
         <v>34942.400000000001</v>
       </c>
       <c r="P33" s="2" t="s">
@@ -3009,10 +3009,10 @@
       <c r="M34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="11">
         <v>33276.239999999998</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="11">
         <v>29740.559999999998</v>
       </c>
       <c r="P34" s="2" t="s">
@@ -3072,10 +3072,10 @@
       <c r="M35" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="11">
         <v>23369.759999999998</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="11">
         <v>20886.719999999998</v>
       </c>
       <c r="P35" s="2" t="s">
@@ -3135,10 +3135,10 @@
       <c r="M36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P36" s="2" t="s">
@@ -3198,10 +3198,10 @@
       <c r="M37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="11">
         <v>33276.239999999998</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="11">
         <v>29740.559999999998</v>
       </c>
       <c r="P37" s="2" t="s">
@@ -3261,10 +3261,10 @@
       <c r="M38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O38" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P38" s="2" t="s">
@@ -3324,10 +3324,10 @@
       <c r="M39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="11">
         <v>37128.720000000001</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="11">
         <v>33183.68</v>
       </c>
       <c r="P39" s="2" t="s">
@@ -3387,10 +3387,10 @@
       <c r="M40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="11">
         <v>42923.28</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40" s="11">
         <v>38362.720000000001</v>
       </c>
       <c r="P40" s="2" t="s">
@@ -3450,10 +3450,10 @@
       <c r="M41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N41" s="11">
         <v>31625.200000000001</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="11">
         <v>28264.959999999999</v>
       </c>
       <c r="P41" s="2" t="s">
@@ -3513,10 +3513,10 @@
       <c r="M42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="11">
         <v>21727.52</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="11">
         <v>19419.04</v>
       </c>
       <c r="P42" s="2" t="s">
@@ -3576,10 +3576,10 @@
       <c r="M43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="11">
         <v>5415.04</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O43" s="11">
         <v>5415.04</v>
       </c>
       <c r="P43" s="2"/>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 1ER\1er Trimestre 2021 SIPOT  Pagina Oficial UPP\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="173">
   <si>
     <t>44234</t>
   </si>
@@ -517,100 +528,19 @@
     <t>ISSSTE</t>
   </si>
   <si>
-    <t>La institución no genera números de contratos para el personal contratados por honorarios.</t>
-  </si>
-  <si>
     <t>http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf</t>
   </si>
   <si>
     <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ZHtMWQ5QM4zwsleumxtddFBd3yj-QhBw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1hD_uYuYVRyACedXarNHFDKDNAm5Qu4r1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Rp9V0mFjzYjQXtWrFbneMS2YUMSdC3Zm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ZXZq_T-pPIGDKcB-TXhaCJLvJXpB0Iz-/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Vpf62zwyVHrp9-41XzBxMewxq20Sh2Cm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sifZQtJLqydQyLayGYdI5U8cp75g5huK/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ZRa3wp-XHi1g0Q1AfSOIsvQAtHAJKUyl/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16zBVTa2J2Y6rS26857inLt_bQW-Fa0JN/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12imTrC7b30SoTvohDYUNR812irC_vAZQ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cDxoaYA_WeME5OGkoe8D4JGzLq3GDGGz/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1IylADZuWKtGa_VZzInzVvnmQtQKEz97k/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1FC7pAHmrRNYHxGcyCeazBVi8fzJCnaDB/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Fy4fRPdVhpax836bAxdcaDQLWMkEz0Ys/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/10omEPVtgL5IB3T2QVZOODoSeB5HNaYwR/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DbU0YfVyosGv9UnRyfXM3MaalcYgFHZ8/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DsSVl4nCBGk5dHHY53-jzNSkaIZ3TXJv/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uA-mhaUGwj1Yfdx2WkxqA8SYgSr-q6cH/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1znMg_AFN4mgAMdaDaqaQ1UOS3KjgHQDJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1lVTQ3o9UTOKbKgCrfHNGKMRhqFaKC0es/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1m8LfcJAIfctjX4eDlwt2LZtAoB5L1GmT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vGxdfwdHu8CgCqAK8rMYzA9U3Bx-8fWE/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Xv_dPdsDcX5mrW6tpISwz7pgDcmsOXuL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uqrW3TqodI0vhe5eUCR1AAvlhpZc2nCJ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WqFt_fWgpdJOquKttgU0AZEc7ToXblNb/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qjFRiBWNSZnJogS82N_Sp3uiPfNxZofo/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1tiawOBU0CskbXmz5oYJeG10n_vIskL7R/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11FtBHHyDRxa7U_e5aS0NM1emOqm9t21h/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DpmXU4yhHgwZ7EpYe4jKXC-n_EcYLMRS/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1-z3G8X3hvJUzPquFhYOVlvaCfkh54CLL/view?usp=sharing</t>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>Monzalvo</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Qlo2buLQ76M1OQDCz7XiBv1YyyLAdekD/view?usp=sharing</t>
@@ -619,25 +549,19 @@
     <t>https://drive.google.com/file/d/11Ld2AGRAiP_RF2JaGcrJZjczqOEu3hjH/view?usp=sharing</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1HAL2fN_1PVNMm_F3dLd63JM_Qc8Lo6uv/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NPrFi-YKydM_fpLKyBZm3V-Tlp6tKsZH/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vf6HtFTHfz9rlvQZtUzQ2buNYb8TdMp-/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1K95Iys7KM61WhaGN7k-OsY4QVonZr1eH/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Riqaq9LaLfKcTjsqdcAoDAHu2aNJD-iZ/view?usp=sharing</t>
+    <t>La institución no genera números de contratos para el personal contratados por honorarios. El contrato aún se encuentra en firma, ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
+  </si>
+  <si>
+    <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo. El contrato aún se encuentra en firma, ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,7 +646,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -743,30 +667,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,64 +988,67 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="53.5703125" customWidth="1"/>
+    <col min="10" max="10" width="87.7109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41.85546875" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="105.28515625" customWidth="1"/>
+    <col min="17" max="17" width="106.85546875" customWidth="1"/>
     <col min="18" max="18" width="73.140625" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="54.140625" customWidth="1"/>
+    <col min="21" max="21" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="J1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:21" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1184,7 +1115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1250,29 +1181,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1339,17 +1270,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="4">
@@ -1365,41 +1296,39 @@
         <v>62</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="10" t="s">
-        <v>195</v>
-      </c>
+      <c r="J8" s="15"/>
       <c r="K8" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L8" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N8" s="11">
-        <v>23369.759999999998</v>
-      </c>
-      <c r="O8" s="11">
-        <v>20886.719999999998</v>
+      <c r="N8" s="18">
+        <v>29974.080000000002</v>
+      </c>
+      <c r="O8" s="18">
+        <v>15563.76</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q8" s="9" t="s">
-        <v>165</v>
+      <c r="Q8" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -1407,12 +1336,12 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="4">
@@ -1428,8 +1357,8 @@
         <v>65</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="10" t="s">
-        <v>196</v>
+      <c r="J9" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="K9" s="6">
         <v>44197</v>
@@ -1440,24 +1369,24 @@
       <c r="M9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="18">
         <v>90843.520000000004</v>
       </c>
-      <c r="O9" s="11">
-        <v>90843.520000000004</v>
+      <c r="O9" s="18">
+        <v>77204</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="9" t="s">
-        <v>165</v>
+      <c r="Q9" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>162</v>
@@ -1468,12 +1397,12 @@
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D10" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="4">
@@ -1489,8 +1418,8 @@
         <v>68</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="10" t="s">
-        <v>197</v>
+      <c r="J10" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="K10" s="6">
         <v>44197</v>
@@ -1501,40 +1430,40 @@
       <c r="M10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="18">
         <v>56102.96</v>
       </c>
-      <c r="O10" s="11">
-        <v>56102.96</v>
+      <c r="O10" s="18">
+        <v>49884</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="9" t="s">
-        <v>165</v>
+      <c r="Q10" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S10" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T10" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="4">
@@ -1550,54 +1479,52 @@
         <v>71</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="10" t="s">
-        <v>167</v>
-      </c>
+      <c r="J11" s="15"/>
       <c r="K11" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L11" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="18">
         <v>39096.32</v>
       </c>
-      <c r="O11" s="11">
-        <v>34942.400000000001</v>
+      <c r="O11" s="18">
+        <v>26774.799999999999</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q11" s="9" t="s">
-        <v>165</v>
+      <c r="Q11" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S11" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T11" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C12" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D12" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="4">
@@ -1613,54 +1540,52 @@
         <v>74</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="J12" s="15"/>
       <c r="K12" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L12" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N12" s="11">
-        <v>23369.759999999998</v>
-      </c>
-      <c r="O12" s="11">
-        <v>20886.719999999998</v>
+      <c r="N12" s="18">
+        <v>29974.080000000002</v>
+      </c>
+      <c r="O12" s="18">
+        <v>24624</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>165</v>
+      <c r="Q12" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S12" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T12" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C13" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D13" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="4">
@@ -1676,54 +1601,52 @@
         <v>77</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="10" t="s">
-        <v>199</v>
-      </c>
+      <c r="J13" s="15"/>
       <c r="K13" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L13" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O13" s="11">
-        <v>28264.959999999999</v>
+      <c r="O13" s="18">
+        <v>25920</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q13" s="9" t="s">
-        <v>165</v>
+      <c r="Q13" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S13" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T13" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C14" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="4">
@@ -1739,54 +1662,52 @@
         <v>80</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="10" t="s">
-        <v>168</v>
-      </c>
+      <c r="J14" s="15"/>
       <c r="K14" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L14" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O14" s="11">
-        <v>28264.959999999999</v>
+      <c r="O14" s="18">
+        <v>25920</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>165</v>
+      <c r="Q14" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S14" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T14" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C15" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D15" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="4">
@@ -1802,52 +1723,50 @@
         <v>83</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="J15" s="15"/>
       <c r="K15" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L15" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="18">
         <v>5415.04</v>
       </c>
-      <c r="O15" s="11">
-        <v>5415.04</v>
+      <c r="O15" s="18">
+        <v>5184</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="9" t="s">
-        <v>165</v>
+      <c r="Q15" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S15" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T15" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C16" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D16" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="4">
@@ -1863,54 +1782,52 @@
         <v>86</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="J16" s="15"/>
       <c r="K16" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L16" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N16" s="11">
-        <v>33276.239999999998</v>
-      </c>
-      <c r="O16" s="11">
-        <v>29740.559999999998</v>
+      <c r="N16" s="18">
+        <v>29974.080000000002</v>
+      </c>
+      <c r="O16" s="18">
+        <v>24624</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q16" s="9" t="s">
-        <v>165</v>
+      <c r="Q16" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S16" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T16" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C17" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D17" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4">
@@ -1926,54 +1843,52 @@
         <v>89</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="10" t="s">
-        <v>171</v>
-      </c>
+      <c r="J17" s="15"/>
       <c r="K17" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L17" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O17" s="11">
-        <v>28264.959999999999</v>
+      <c r="O17" s="18">
+        <v>25920</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q17" s="9" t="s">
-        <v>165</v>
+      <c r="Q17" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S17" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T17" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="4">
@@ -1989,54 +1904,52 @@
         <v>92</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="10" t="s">
-        <v>172</v>
-      </c>
+      <c r="J18" s="15"/>
       <c r="K18" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L18" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="18">
         <v>39096.32</v>
       </c>
-      <c r="O18" s="11">
-        <v>34942.400000000001</v>
+      <c r="O18" s="18">
+        <v>19955.12</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q18" s="9" t="s">
-        <v>165</v>
+      <c r="Q18" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S18" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T18" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="4">
@@ -2052,54 +1965,52 @@
         <v>95</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="J19" s="15"/>
       <c r="K19" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L19" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O19" s="11">
-        <v>28264.959999999999</v>
+      <c r="O19" s="18">
+        <v>25920</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="9" t="s">
-        <v>165</v>
+      <c r="Q19" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S19" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T19" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C20" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D20" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="4">
@@ -2115,54 +2026,52 @@
         <v>99</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="10" t="s">
-        <v>174</v>
-      </c>
+      <c r="J20" s="15"/>
       <c r="K20" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L20" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N20" s="11">
-        <v>37128.720000000001</v>
-      </c>
-      <c r="O20" s="11">
-        <v>33183.68</v>
+      <c r="N20" s="18">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O20" s="18">
+        <v>27216</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q20" s="9" t="s">
-        <v>165</v>
+      <c r="Q20" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S20" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T20" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C21" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D21" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="4">
@@ -2178,54 +2087,52 @@
         <v>102</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="J21" s="15"/>
       <c r="K21" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L21" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N21" s="11">
-        <v>25020.959999999999</v>
-      </c>
-      <c r="O21" s="11">
-        <v>22362.399999999998</v>
+      <c r="N21" s="18">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O21" s="18">
+        <v>25920</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q21" s="9" t="s">
-        <v>165</v>
+      <c r="Q21" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S21" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T21" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C22" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D22" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="4">
@@ -2241,54 +2148,52 @@
         <v>105</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="J22" s="15"/>
       <c r="K22" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L22" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N22" s="11">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O22" s="11">
-        <v>28264.959999999999</v>
+      <c r="N22" s="18">
+        <v>29974.080000000002</v>
+      </c>
+      <c r="O22" s="18">
+        <v>24624</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q22" s="9" t="s">
-        <v>165</v>
+      <c r="Q22" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S22" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T22" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C23" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D23" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="4">
@@ -2304,54 +2209,52 @@
         <v>108</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="10" t="s">
-        <v>177</v>
-      </c>
+      <c r="J23" s="15"/>
       <c r="K23" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L23" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N23" s="11">
-        <v>28323.040000000001</v>
-      </c>
-      <c r="O23" s="11">
-        <v>25313.68</v>
+      <c r="N23" s="18">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O23" s="18">
+        <v>27216</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q23" s="9" t="s">
-        <v>165</v>
+      <c r="Q23" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S23" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T23" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C24" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D24" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4">
@@ -2367,54 +2270,52 @@
         <v>111</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="10" t="s">
-        <v>178</v>
-      </c>
+      <c r="J24" s="15"/>
       <c r="K24" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L24" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O24" s="11">
-        <v>28264.959999999999</v>
+      <c r="O24" s="18">
+        <v>25920</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q24" s="9" t="s">
-        <v>165</v>
+      <c r="Q24" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S24" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T24" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C25" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D25" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="4">
@@ -2430,54 +2331,52 @@
         <v>114</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="J25" s="15"/>
       <c r="K25" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L25" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O25" s="11">
-        <v>28264.959999999999</v>
+      <c r="O25" s="18">
+        <v>25920</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q25" s="9" t="s">
-        <v>165</v>
+      <c r="Q25" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S25" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T25" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C26" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D26" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="4">
@@ -2493,54 +2392,52 @@
         <v>117</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="10" t="s">
-        <v>180</v>
-      </c>
+      <c r="J26" s="15"/>
       <c r="K26" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L26" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N26" s="11">
-        <v>25571.200000000001</v>
-      </c>
-      <c r="O26" s="11">
-        <v>22854.240000000002</v>
+      <c r="N26" s="18">
+        <v>29423.68</v>
+      </c>
+      <c r="O26" s="18">
+        <v>24192</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>165</v>
+      <c r="Q26" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S26" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T26" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C27" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D27" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4">
@@ -2556,54 +2453,52 @@
         <v>120</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="10" t="s">
-        <v>181</v>
-      </c>
+      <c r="J27" s="15"/>
       <c r="K27" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L27" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N27" s="11">
-        <v>33276.239999999998</v>
-      </c>
-      <c r="O27" s="11">
-        <v>29740.559999999998</v>
+      <c r="N27" s="18">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O27" s="18">
+        <v>25920</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q27" s="9" t="s">
-        <v>165</v>
+      <c r="Q27" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S27" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T27" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C28" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D28" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="4">
@@ -2619,54 +2514,52 @@
         <v>122</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="10" t="s">
-        <v>200</v>
-      </c>
+      <c r="J28" s="15"/>
       <c r="K28" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L28" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N28" s="11">
-        <v>37128.720000000001</v>
-      </c>
-      <c r="O28" s="11">
-        <v>33183.68</v>
+      <c r="N28" s="18">
+        <v>31349.759999999998</v>
+      </c>
+      <c r="O28" s="18">
+        <v>25077.040000000001</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q28" s="9" t="s">
-        <v>165</v>
+      <c r="Q28" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S28" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T28" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C29" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D29" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="4">
@@ -2682,54 +2575,52 @@
         <v>125</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="10" t="s">
-        <v>182</v>
-      </c>
+      <c r="J29" s="15"/>
       <c r="K29" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L29" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O29" s="11">
-        <v>28264.959999999999</v>
+      <c r="O29" s="18">
+        <v>25920</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q29" s="9" t="s">
-        <v>165</v>
+      <c r="Q29" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S29" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T29" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C30" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D30" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="4">
@@ -2745,54 +2636,52 @@
         <v>96</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="10" t="s">
-        <v>183</v>
-      </c>
+      <c r="J30" s="15"/>
       <c r="K30" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L30" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N30" s="11">
-        <v>28323.040000000001</v>
-      </c>
-      <c r="O30" s="11">
-        <v>25313.68</v>
+      <c r="N30" s="18">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O30" s="18">
+        <v>25920</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q30" s="9" t="s">
-        <v>165</v>
+      <c r="Q30" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S30" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T30" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C31" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D31" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="4">
@@ -2808,54 +2697,52 @@
         <v>96</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="10" t="s">
-        <v>201</v>
-      </c>
+      <c r="J31" s="15"/>
       <c r="K31" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L31" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O31" s="11">
-        <v>28264.959999999999</v>
+      <c r="O31" s="18">
+        <v>25920</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q31" s="9" t="s">
-        <v>165</v>
+      <c r="Q31" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S31" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T31" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C32" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D32" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="4">
@@ -2871,54 +2758,52 @@
         <v>132</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="10" t="s">
-        <v>184</v>
-      </c>
+      <c r="J32" s="15"/>
       <c r="K32" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L32" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N32" s="11">
-        <v>33276.239999999998</v>
-      </c>
-      <c r="O32" s="11">
-        <v>29740.559999999998</v>
+      <c r="N32" s="18">
+        <v>28323.040000000001</v>
+      </c>
+      <c r="O32" s="18">
+        <v>23328</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q32" s="9" t="s">
-        <v>165</v>
+      <c r="Q32" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S32" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T32" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C33" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D33" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="4">
@@ -2934,54 +2819,52 @@
         <v>134</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="10" t="s">
-        <v>185</v>
-      </c>
+      <c r="J33" s="15"/>
       <c r="K33" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L33" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="18">
         <v>39096.32</v>
       </c>
-      <c r="O33" s="11">
-        <v>34942.400000000001</v>
+      <c r="O33" s="18">
+        <v>31752</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q33" s="9" t="s">
-        <v>165</v>
+      <c r="Q33" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S33" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T33" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C34" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D34" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="4">
@@ -2997,54 +2880,52 @@
         <v>136</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="10" t="s">
-        <v>186</v>
-      </c>
+      <c r="J34" s="15"/>
       <c r="K34" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L34" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N34" s="11">
-        <v>33276.239999999998</v>
-      </c>
-      <c r="O34" s="11">
-        <v>29740.559999999998</v>
+      <c r="N34" s="18">
+        <v>39096.32</v>
+      </c>
+      <c r="O34" s="18">
+        <v>31752</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q34" s="9" t="s">
-        <v>165</v>
+      <c r="Q34" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S34" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T34" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C35" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D35" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="4">
@@ -3060,54 +2941,52 @@
         <v>91</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="10" t="s">
-        <v>187</v>
-      </c>
+      <c r="J35" s="15"/>
       <c r="K35" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L35" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="18">
         <v>23369.759999999998</v>
       </c>
-      <c r="O35" s="11">
-        <v>20886.719999999998</v>
+      <c r="O35" s="18">
+        <v>19440</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q35" s="9" t="s">
-        <v>165</v>
+      <c r="Q35" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S35" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T35" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C36" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D36" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4">
@@ -3123,54 +3002,52 @@
         <v>140</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="10" t="s">
-        <v>188</v>
-      </c>
+      <c r="J36" s="15"/>
       <c r="K36" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L36" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O36" s="11">
-        <v>28264.959999999999</v>
+      <c r="O36" s="18">
+        <v>14364.4</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q36" s="9" t="s">
-        <v>165</v>
+      <c r="Q36" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S36" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T36" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C37" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D37" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="4">
@@ -3186,54 +3063,52 @@
         <v>143</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="10" t="s">
-        <v>189</v>
-      </c>
+      <c r="J37" s="15"/>
       <c r="K37" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L37" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N37" s="11">
-        <v>33276.239999999998</v>
-      </c>
-      <c r="O37" s="11">
-        <v>29740.559999999998</v>
+      <c r="N37" s="18">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O37" s="18">
+        <v>25920</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q37" s="9" t="s">
-        <v>165</v>
+      <c r="Q37" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S37" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T37" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C38" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D38" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="4">
@@ -3249,54 +3124,52 @@
         <v>77</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="10" t="s">
-        <v>190</v>
-      </c>
+      <c r="J38" s="15"/>
       <c r="K38" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L38" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="11">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O38" s="11">
-        <v>28264.959999999999</v>
+      <c r="N38" s="18">
+        <v>34927.199999999997</v>
+      </c>
+      <c r="O38" s="18">
+        <v>28512</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q38" s="9" t="s">
-        <v>165</v>
+      <c r="Q38" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S38" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T38" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D39" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="4">
@@ -3312,54 +3185,52 @@
         <v>148</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="J39" s="15"/>
       <c r="K39" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L39" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="18">
         <v>37128.720000000001</v>
       </c>
-      <c r="O39" s="11">
-        <v>33183.68</v>
+      <c r="O39" s="18">
+        <v>30240</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q39" s="9" t="s">
-        <v>165</v>
+      <c r="Q39" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S39" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T39" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C40" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D40" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="4">
@@ -3375,54 +3246,52 @@
         <v>122</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="10" t="s">
-        <v>192</v>
-      </c>
+      <c r="J40" s="15"/>
       <c r="K40" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L40" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N40" s="11">
-        <v>42923.28</v>
-      </c>
-      <c r="O40" s="11">
-        <v>38362.720000000001</v>
+      <c r="N40" s="18">
+        <v>38229.279999999999</v>
+      </c>
+      <c r="O40" s="18">
+        <v>30339.439999999999</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q40" s="9" t="s">
-        <v>165</v>
+      <c r="Q40" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S40" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T40" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D41" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="4">
@@ -3438,54 +3307,52 @@
         <v>152</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="10" t="s">
-        <v>193</v>
-      </c>
+      <c r="J41" s="15"/>
       <c r="K41" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L41" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="18">
         <v>31625.200000000001</v>
       </c>
-      <c r="O41" s="11">
-        <v>28264.959999999999</v>
+      <c r="O41" s="18">
+        <v>25920</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q41" s="9" t="s">
-        <v>165</v>
+      <c r="Q41" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S41" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T41" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C42" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D42" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="4">
@@ -3501,54 +3368,52 @@
         <v>107</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="J42" s="15"/>
       <c r="K42" s="6">
-        <v>44209</v>
+        <v>44321</v>
       </c>
       <c r="L42" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N42" s="11">
-        <v>21727.52</v>
-      </c>
-      <c r="O42" s="11">
-        <v>19419.04</v>
+      <c r="N42" s="18">
+        <v>37128.720000000001</v>
+      </c>
+      <c r="O42" s="18">
+        <v>30240</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q42" s="9" t="s">
-        <v>165</v>
+      <c r="Q42" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S42" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T42" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D43" s="8" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="4">
@@ -3564,39 +3429,98 @@
         <v>161</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="J43" s="15"/>
       <c r="K43" s="6">
-        <v>44203</v>
+        <v>44321</v>
       </c>
       <c r="L43" s="6">
-        <v>44316</v>
+        <v>44435</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="18">
         <v>5415.04</v>
       </c>
-      <c r="O43" s="11">
-        <v>5415.04</v>
+      <c r="O43" s="18">
+        <v>5184</v>
       </c>
       <c r="P43" s="2"/>
-      <c r="Q43" s="9" t="s">
-        <v>165</v>
+      <c r="Q43" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S43" s="3">
+        <v>44386</v>
+      </c>
+      <c r="T43" s="3">
+        <v>44386</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44287</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44377</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="4">
+        <v>121001</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="S43" s="3">
-        <v>44298</v>
-      </c>
-      <c r="T43" s="3">
-        <v>44298</v>
-      </c>
-      <c r="U43" s="7" t="s">
-        <v>162</v>
+      <c r="G44" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="3">
+        <v>44326</v>
+      </c>
+      <c r="L44" s="6">
+        <v>44435</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" s="2">
+        <v>25571.200000000001</v>
+      </c>
+      <c r="O44" s="2">
+        <v>21168</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S44" s="3">
+        <v>44386</v>
+      </c>
+      <c r="T44" s="3">
+        <v>44386</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3610,49 +3534,16 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D43">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D84">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1"/>
     <hyperlink ref="Q9:Q43" r:id="rId2" display="http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf"/>
-    <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
-    <hyperlink ref="J14" r:id="rId5"/>
-    <hyperlink ref="J15" r:id="rId6"/>
-    <hyperlink ref="J16" r:id="rId7"/>
-    <hyperlink ref="J17" r:id="rId8"/>
-    <hyperlink ref="J18" r:id="rId9"/>
-    <hyperlink ref="J19" r:id="rId10"/>
-    <hyperlink ref="J20" r:id="rId11"/>
-    <hyperlink ref="J21" r:id="rId12"/>
-    <hyperlink ref="J22" r:id="rId13"/>
-    <hyperlink ref="J23" r:id="rId14"/>
-    <hyperlink ref="J24" r:id="rId15"/>
-    <hyperlink ref="J25" r:id="rId16"/>
-    <hyperlink ref="J26" r:id="rId17"/>
-    <hyperlink ref="J27" r:id="rId18"/>
-    <hyperlink ref="J29" r:id="rId19"/>
-    <hyperlink ref="J30" r:id="rId20"/>
-    <hyperlink ref="J32" r:id="rId21"/>
-    <hyperlink ref="J33" r:id="rId22"/>
-    <hyperlink ref="J34" r:id="rId23"/>
-    <hyperlink ref="J35" r:id="rId24"/>
-    <hyperlink ref="J36" r:id="rId25"/>
-    <hyperlink ref="J37" r:id="rId26"/>
-    <hyperlink ref="J38" r:id="rId27"/>
-    <hyperlink ref="J39" r:id="rId28"/>
-    <hyperlink ref="J40" r:id="rId29"/>
-    <hyperlink ref="J41" r:id="rId30"/>
-    <hyperlink ref="J42" r:id="rId31"/>
-    <hyperlink ref="J9" r:id="rId32"/>
-    <hyperlink ref="J10" r:id="rId33"/>
-    <hyperlink ref="J12" r:id="rId34"/>
-    <hyperlink ref="J13" r:id="rId35"/>
-    <hyperlink ref="J28" r:id="rId36"/>
-    <hyperlink ref="J31" r:id="rId37"/>
-    <hyperlink ref="J43" r:id="rId38"/>
+    <hyperlink ref="Q44" r:id="rId3"/>
+    <hyperlink ref="J9" r:id="rId4"/>
+    <hyperlink ref="J10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3662,9 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD88"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,12 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="175">
   <si>
     <t>44234</t>
   </si>
@@ -288,15 +277,6 @@
     <t>Barrera</t>
   </si>
   <si>
-    <t>Álvaro Octavio</t>
-  </si>
-  <si>
-    <t>Batrez</t>
-  </si>
-  <si>
-    <t>de la Paz</t>
-  </si>
-  <si>
     <t>Linda</t>
   </si>
   <si>
@@ -324,102 +304,93 @@
     <t>Armenta</t>
   </si>
   <si>
+    <t>Alma Rosa</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez </t>
+  </si>
+  <si>
+    <t>Nájera</t>
+  </si>
+  <si>
+    <t>Erick Alexis</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Tapia</t>
+  </si>
+  <si>
+    <t>Karina</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montiel </t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>De la Vega</t>
+  </si>
+  <si>
+    <t>Ángeles</t>
+  </si>
+  <si>
+    <t>Fredy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santander </t>
+  </si>
+  <si>
+    <t>Baños</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Hinojosa</t>
+  </si>
+  <si>
+    <t>Juan Antonio</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Edwin Armando</t>
+  </si>
+  <si>
+    <t>Ambriz</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t>Julio César</t>
+  </si>
+  <si>
+    <t>De Dios</t>
+  </si>
+  <si>
     <t>García</t>
   </si>
   <si>
-    <t>Alma Rosa</t>
-  </si>
-  <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t>Carrasco</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pérez </t>
-  </si>
-  <si>
-    <t>Nájera</t>
-  </si>
-  <si>
-    <t>Erick Alexis</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>Tapia</t>
-  </si>
-  <si>
-    <t>Karina</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montiel </t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>De la Vega</t>
-  </si>
-  <si>
-    <t>Ángeles</t>
-  </si>
-  <si>
-    <t>Diana Laura</t>
-  </si>
-  <si>
-    <t>Cuellar</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Fredy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santander </t>
-  </si>
-  <si>
-    <t>Baños</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>Hinojosa</t>
-  </si>
-  <si>
-    <t>Juan Antonio</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>Edwin Armando</t>
-  </si>
-  <si>
-    <t>Ambriz</t>
-  </si>
-  <si>
-    <t>Muñoz</t>
-  </si>
-  <si>
-    <t>Julio César</t>
-  </si>
-  <si>
-    <t>De Dios</t>
-  </si>
-  <si>
     <t>Javier Héctor</t>
   </si>
   <si>
@@ -435,12 +406,6 @@
     <t>Vargas</t>
   </si>
   <si>
-    <t>Francisco David</t>
-  </si>
-  <si>
-    <t>Reynoso</t>
-  </si>
-  <si>
     <t>Yessica</t>
   </si>
   <si>
@@ -495,6 +460,27 @@
     <t>Argueta</t>
   </si>
   <si>
+    <t>Maria Guadalupe</t>
+  </si>
+  <si>
+    <t>Yáñez</t>
+  </si>
+  <si>
+    <t>Maria de la Luz</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Cervantes</t>
+  </si>
+  <si>
+    <t>Monzalvo</t>
+  </si>
+  <si>
     <t>Profesor por asignatura A</t>
   </si>
   <si>
@@ -510,57 +496,67 @@
     <t>Profesor por asignatura C</t>
   </si>
   <si>
-    <t>Maria Guadalupe</t>
-  </si>
-  <si>
-    <t>Maria de la Luz</t>
-  </si>
-  <si>
-    <t>Yáñez</t>
-  </si>
-  <si>
-    <t>Flores</t>
+    <t>ISSSTE</t>
+  </si>
+  <si>
+    <t>http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf</t>
+  </si>
+  <si>
+    <t>Departamento de Recursos Humanos (UPP)</t>
+  </si>
+  <si>
+    <t>La institución no genera números de contratos para el personal contratados por honorarios. El contrato aún se encuentra en firma, ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
   </si>
   <si>
     <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo.</t>
   </si>
   <si>
-    <t>ISSSTE</t>
-  </si>
-  <si>
-    <t>http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf</t>
-  </si>
-  <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Cervantes</t>
-  </si>
-  <si>
-    <t>Monzalvo</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Qlo2buLQ76M1OQDCz7XiBv1YyyLAdekD/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/11Ld2AGRAiP_RF2JaGcrJZjczqOEu3hjH/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>La institución no genera números de contratos para el personal contratados por honorarios. El contrato aún se encuentra en firma, ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
-  </si>
-  <si>
     <t>La institución no genera números de contratos para el personal contratados por honorarios, ni se generan prestaciones de ningún tipo. El contrato aún se encuentra en firma, ya que derivado de la contingencia sanitaria que se tiene actualmente, el proceso de firma es más tardado.</t>
+  </si>
+  <si>
+    <t>Aráis</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>Rendón</t>
+  </si>
+  <si>
+    <t>Limairy Valeria</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Licona</t>
+  </si>
+  <si>
+    <t>Evelin</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yZ2Tkp0wDFvUJvbyhSKc_VjhOEysHbMM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OG-4S-Q3ug57Z9RfAj6ujOSJPkVpOAnX/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -646,7 +642,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -660,40 +656,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -977,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,69 +979,66 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="87.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="106.85546875" customWidth="1"/>
-    <col min="18" max="18" width="73.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="64" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="102.85546875" customWidth="1"/>
+    <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="51" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1180,32 +1168,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1269,2259 +1257,2827 @@
       <c r="U7" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+    </row>
+    <row r="8" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>121001</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>62</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L8" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N8" s="18">
-        <v>29974.080000000002</v>
-      </c>
-      <c r="O8" s="18">
-        <v>15563.76</v>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L8" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="17">
+        <v>25020.959999999999</v>
+      </c>
+      <c r="O8" s="17">
+        <v>20736</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:36" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E9" s="4">
         <v>121001</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L9" s="6">
-        <v>44377</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="N9" s="18">
+      <c r="J9" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44378</v>
+      </c>
+      <c r="L9" s="3">
+        <v>44561</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="17">
         <v>90843.520000000004</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <v>77204</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="17" t="s">
-        <v>164</v>
+      <c r="Q9" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="4">
         <v>121001</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>68</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="6">
-        <v>44197</v>
-      </c>
-      <c r="L10" s="6">
-        <v>44377</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="18">
+      <c r="J10" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44378</v>
+      </c>
+      <c r="L10" s="3">
+        <v>44561</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="17">
         <v>56102.96</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <v>49884</v>
       </c>
       <c r="P10" s="2"/>
-      <c r="Q10" s="17" t="s">
-        <v>164</v>
+      <c r="Q10" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S10" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T10" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="4">
         <v>121001</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L11" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N11" s="18">
+      <c r="J11" s="6"/>
+      <c r="K11" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L11" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="17">
         <v>39096.32</v>
       </c>
-      <c r="O11" s="18">
-        <v>26774.799999999999</v>
+      <c r="O11" s="17">
+        <v>31752</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S11" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T11" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C12" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="4">
         <v>121001</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>74</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L12" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N12" s="18">
-        <v>29974.080000000002</v>
-      </c>
-      <c r="O12" s="18">
-        <v>24624</v>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L12" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="17">
+        <v>26671.919999999998</v>
+      </c>
+      <c r="O12" s="17">
+        <v>22032</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S12" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T12" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+    </row>
+    <row r="13" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C13" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D13" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="4">
         <v>121001</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>77</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L13" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N13" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O13" s="18">
-        <v>25920</v>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L13" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="17">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O13" s="17">
+        <v>27216</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S13" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T13" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+    </row>
+    <row r="14" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C14" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D14" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="4">
         <v>121001</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L14" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N14" s="18">
+      <c r="J14" s="6"/>
+      <c r="K14" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L14" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="17">
         <v>31625.200000000001</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="17">
         <v>25920</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S14" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T14" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+    </row>
+    <row r="15" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C15" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D15" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>121001</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>83</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L15" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N15" s="18">
+      <c r="J15" s="6"/>
+      <c r="K15" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L15" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N15" s="17">
         <v>5415.04</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="17">
         <v>5184</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="17" t="s">
-        <v>164</v>
+      <c r="Q15" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S15" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T15" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+    </row>
+    <row r="16" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C16" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D16" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="4">
         <v>121001</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>86</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L16" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N16" s="18">
-        <v>29974.080000000002</v>
-      </c>
-      <c r="O16" s="18">
-        <v>24624</v>
+      <c r="J16" s="6"/>
+      <c r="K16" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L16" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N16" s="17">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O16" s="17">
+        <v>27216</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S16" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T16" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+    </row>
+    <row r="17" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C17" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D17" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4">
         <v>121001</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>89</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L17" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O17" s="18">
-        <v>25920</v>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L17" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="17">
+        <v>39096.32</v>
+      </c>
+      <c r="O17" s="17">
+        <v>31752</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S17" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T17" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+    </row>
+    <row r="18" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C18" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D18" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E18" s="4">
         <v>121001</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>92</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L18" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N18" s="18">
-        <v>39096.32</v>
-      </c>
-      <c r="O18" s="18">
-        <v>19955.12</v>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L18" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N18" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O18" s="17">
+        <v>25920</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S18" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T18" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+    </row>
+    <row r="19" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C19" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D19" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="4">
         <v>121001</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>95</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L19" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N19" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O19" s="18">
-        <v>25920</v>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L19" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="17">
+        <v>37128.720000000001</v>
+      </c>
+      <c r="O19" s="17">
+        <v>30240</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S19" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T19" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+    </row>
+    <row r="20" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C20" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D20" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="4">
         <v>121001</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L20" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N20" s="18">
-        <v>33276.239999999998</v>
-      </c>
-      <c r="O20" s="18">
-        <v>27216</v>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L20" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O20" s="17">
+        <v>25920</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S20" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T20" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+    </row>
+    <row r="21" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C21" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D21" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="4">
         <v>121001</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L21" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N21" s="18">
+      <c r="J21" s="6"/>
+      <c r="K21" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L21" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="17">
         <v>31625.200000000001</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="17">
         <v>25920</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S21" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T21" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+    </row>
+    <row r="22" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C22" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D22" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E22" s="4">
         <v>121001</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L22" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N22" s="18">
-        <v>29974.080000000002</v>
-      </c>
-      <c r="O22" s="18">
-        <v>24624</v>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L22" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" s="17">
+        <v>23369.759999999998</v>
+      </c>
+      <c r="O22" s="17">
+        <v>19440</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S22" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T22" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+    </row>
+    <row r="23" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C23" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D23" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="4">
         <v>121001</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L23" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N23" s="18">
-        <v>33276.239999999998</v>
-      </c>
-      <c r="O23" s="18">
-        <v>27216</v>
+      <c r="J23" s="6"/>
+      <c r="K23" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L23" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O23" s="17">
+        <v>25920</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S23" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T23" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+    </row>
+    <row r="24" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C24" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D24" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4">
         <v>121001</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L24" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N24" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O24" s="18">
-        <v>25920</v>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L24" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N24" s="17">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O24" s="17">
+        <v>27216</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S24" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T24" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+    </row>
+    <row r="25" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C25" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D25" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="4">
         <v>121001</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L25" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N25" s="18">
+      <c r="J25" s="6"/>
+      <c r="K25" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L25" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" s="17">
         <v>31625.200000000001</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="17">
         <v>25920</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S25" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T25" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+    </row>
+    <row r="26" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C26" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D26" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="4">
         <v>121001</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L26" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N26" s="18">
-        <v>29423.68</v>
-      </c>
-      <c r="O26" s="18">
+      <c r="J26" s="6"/>
+      <c r="K26" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L26" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" s="17">
+        <v>28131.599999999999</v>
+      </c>
+      <c r="O26" s="17">
         <v>24192</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S26" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T26" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+    </row>
+    <row r="27" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C27" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D27" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="4">
         <v>121001</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L27" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N27" s="18">
+      <c r="J27" s="6"/>
+      <c r="K27" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L27" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" s="17">
         <v>31625.200000000001</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="17">
         <v>25920</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S27" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T27" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+    </row>
+    <row r="28" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C28" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D28" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="4">
         <v>121001</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L28" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N28" s="18">
-        <v>31349.759999999998</v>
-      </c>
-      <c r="O28" s="18">
-        <v>25077.040000000001</v>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L28" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N28" s="17">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O28" s="17">
+        <v>27216</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S28" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T28" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+    </row>
+    <row r="29" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C29" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D29" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="4">
         <v>121001</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>125</v>
+      <c r="H29" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L29" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N29" s="18">
+      <c r="J29" s="6"/>
+      <c r="K29" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L29" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" s="17">
         <v>31625.200000000001</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="17">
         <v>25920</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S29" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T29" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+    </row>
+    <row r="30" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C30" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D30" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="4">
         <v>121001</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L30" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N30" s="18">
+      <c r="J30" s="6"/>
+      <c r="K30" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L30" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N30" s="17">
         <v>31625.200000000001</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="17">
         <v>25920</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S30" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T30" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+    </row>
+    <row r="31" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C31" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D31" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="4">
         <v>121001</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L31" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N31" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O31" s="18">
-        <v>25920</v>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L31" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N31" s="17">
+        <v>39096.32</v>
+      </c>
+      <c r="O31" s="17">
+        <v>31752</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S31" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T31" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+    </row>
+    <row r="32" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C32" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D32" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="4">
         <v>121001</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>132</v>
+      <c r="H32" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L32" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N32" s="18">
-        <v>28323.040000000001</v>
-      </c>
-      <c r="O32" s="18">
-        <v>23328</v>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L32" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N32" s="17">
+        <v>33276.239999999998</v>
+      </c>
+      <c r="O32" s="17">
+        <v>27216</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S32" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T32" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+    </row>
+    <row r="33" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C33" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D33" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="4">
         <v>121001</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>134</v>
+      <c r="F33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L33" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N33" s="18">
-        <v>39096.32</v>
-      </c>
-      <c r="O33" s="18">
-        <v>31752</v>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L33" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O33" s="17">
+        <v>25920</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S33" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T33" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+    </row>
+    <row r="34" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C34" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D34" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E34" s="4">
         <v>121001</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L34" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N34" s="18">
-        <v>39096.32</v>
-      </c>
-      <c r="O34" s="18">
-        <v>31752</v>
+      <c r="J34" s="6"/>
+      <c r="K34" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L34" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N34" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O34" s="17">
+        <v>25920</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S34" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T34" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+    </row>
+    <row r="35" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C35" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D35" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="4">
         <v>121001</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>91</v>
+      <c r="H35" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L35" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N35" s="18">
-        <v>23369.759999999998</v>
-      </c>
-      <c r="O35" s="18">
-        <v>19440</v>
+      <c r="J35" s="6"/>
+      <c r="K35" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L35" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N35" s="17">
+        <v>28865.040000000001</v>
+      </c>
+      <c r="O35" s="17">
+        <v>24624</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S35" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T35" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+    </row>
+    <row r="36" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C36" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D36" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="4">
         <v>121001</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="6" t="s">
         <v>140</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L36" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N36" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O36" s="18">
-        <v>14364.4</v>
+      <c r="J36" s="6"/>
+      <c r="K36" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L36" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N36" s="17">
+        <v>37128.720000000001</v>
+      </c>
+      <c r="O36" s="17">
+        <v>30240</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q36" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S36" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T36" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+    </row>
+    <row r="37" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C37" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D37" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="4">
         <v>121001</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>143</v>
+      <c r="G37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L37" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N37" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O37" s="18">
-        <v>25920</v>
+      <c r="J37" s="6"/>
+      <c r="K37" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L37" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="N37" s="17">
+        <v>40568.239999999998</v>
+      </c>
+      <c r="O37" s="17">
+        <v>32832</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S37" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T37" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+    </row>
+    <row r="38" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C38" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D38" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="4">
         <v>121001</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L38" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N38" s="18">
-        <v>34927.199999999997</v>
-      </c>
-      <c r="O38" s="18">
-        <v>28512</v>
+      <c r="J38" s="6"/>
+      <c r="K38" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L38" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N38" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O38" s="17">
+        <v>25920</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S38" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T38" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+    </row>
+    <row r="39" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C39" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D39" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E39" s="4">
         <v>121001</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>148</v>
+      <c r="H39" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L39" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N39" s="18">
-        <v>37128.720000000001</v>
-      </c>
-      <c r="O39" s="18">
-        <v>30240</v>
+      <c r="J39" s="6"/>
+      <c r="K39" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L39" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N39" s="17">
+        <v>39096.32</v>
+      </c>
+      <c r="O39" s="17">
+        <v>31752</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S39" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T39" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+    </row>
+    <row r="40" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C40" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D40" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="4">
         <v>121001</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>122</v>
+      <c r="F40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L40" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N40" s="18">
-        <v>38229.279999999999</v>
-      </c>
-      <c r="O40" s="18">
-        <v>30339.439999999999</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>164</v>
+      <c r="J40" s="6"/>
+      <c r="K40" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L40" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="N40" s="17">
+        <v>5415.04</v>
+      </c>
+      <c r="O40" s="17">
+        <v>5184</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S40" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T40" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+    </row>
+    <row r="41" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C41" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D41" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="4">
         <v>121001</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L41" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N41" s="18">
-        <v>31625.200000000001</v>
-      </c>
-      <c r="O41" s="18">
-        <v>25920</v>
+      <c r="J41" s="6"/>
+      <c r="K41" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L41" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N41" s="17">
+        <v>25571.200000000001</v>
+      </c>
+      <c r="O41" s="17">
+        <v>21168</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="S41" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T41" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+    </row>
+    <row r="42" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C42" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D42" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="4">
         <v>121001</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L42" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N42" s="17">
+        <v>29974.080000000002</v>
+      </c>
+      <c r="O42" s="17">
+        <v>24624</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q42" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="R42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S42" s="3">
+        <v>44480</v>
+      </c>
+      <c r="T42" s="3">
+        <v>44480</v>
+      </c>
+      <c r="U42" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L42" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N42" s="18">
-        <v>37128.720000000001</v>
-      </c>
-      <c r="O42" s="18">
-        <v>30240</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S42" s="3">
-        <v>44386</v>
-      </c>
-      <c r="T42" s="3">
-        <v>44386</v>
-      </c>
-      <c r="U42" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+    </row>
+    <row r="43" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C43" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D43" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="4">
         <v>121001</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3">
+        <v>44445</v>
+      </c>
+      <c r="L43" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N43" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O43" s="17">
+        <v>25920</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R43" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="6">
-        <v>44321</v>
-      </c>
-      <c r="L43" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N43" s="18">
-        <v>5415.04</v>
-      </c>
-      <c r="O43" s="18">
-        <v>5184</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="S43" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T43" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+    </row>
+    <row r="44" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D44" s="12" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="4">
         <v>121001</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="G44" s="6" t="s">
         <v>168</v>
       </c>
+      <c r="H44" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="15"/>
+      <c r="J44" s="2"/>
       <c r="K44" s="3">
-        <v>44326</v>
-      </c>
-      <c r="L44" s="6">
-        <v>44435</v>
-      </c>
-      <c r="M44" s="2" t="s">
+        <v>44447</v>
+      </c>
+      <c r="L44" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N44" s="17">
+        <v>23369.759999999998</v>
+      </c>
+      <c r="O44" s="17">
+        <v>19440</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S44" s="3">
+        <v>44480</v>
+      </c>
+      <c r="T44" s="3">
+        <v>44480</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+    </row>
+    <row r="45" spans="1:36" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44378</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44469</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="4">
+        <v>121001</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3">
+        <v>44447</v>
+      </c>
+      <c r="L45" s="3">
+        <v>44551</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="N44" s="2">
-        <v>25571.200000000001</v>
-      </c>
-      <c r="O44" s="2">
-        <v>21168</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S44" s="3">
-        <v>44386</v>
-      </c>
-      <c r="T44" s="3">
-        <v>44386</v>
-      </c>
-      <c r="U44" s="7" t="s">
-        <v>171</v>
-      </c>
+      <c r="N45" s="17">
+        <v>31625.200000000001</v>
+      </c>
+      <c r="O45" s="17">
+        <v>25920</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S45" s="3">
+        <v>44480</v>
+      </c>
+      <c r="T45" s="3">
+        <v>44480</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3534,18 +4090,20 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D84">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D104">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1"/>
-    <hyperlink ref="Q9:Q43" r:id="rId2" display="http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf"/>
-    <hyperlink ref="Q44" r:id="rId3"/>
-    <hyperlink ref="J9" r:id="rId4"/>
-    <hyperlink ref="J10" r:id="rId5"/>
+    <hyperlink ref="Q9:Q40" r:id="rId2" display="http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf"/>
+    <hyperlink ref="Q41" r:id="rId3"/>
+    <hyperlink ref="Q42:Q45" r:id="rId4" display="http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/Leyes/02Codigo%20Civil%20para%20el%20Estado%20de%20Hidalgo.pdf"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\OBSERVACIONES SIPOT ACTUALIZACIÓN 3ER TRIMESTRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -673,6 +673,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,9 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.85546875" customWidth="1"/>
+    <col min="10" max="10" width="86" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
@@ -1005,38 +1005,38 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1169,29 +1169,29 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:36" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1307,10 +1307,10 @@
       <c r="M8" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="12">
         <v>25020.959999999999</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="12">
         <v>20736</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -1383,10 +1383,10 @@
       <c r="M9" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="12">
         <v>90843.520000000004</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="12">
         <v>77204</v>
       </c>
       <c r="P9" s="2"/>
@@ -1457,10 +1457,10 @@
       <c r="M10" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="12">
         <v>56102.96</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="12">
         <v>49884</v>
       </c>
       <c r="P10" s="2"/>
@@ -1529,10 +1529,10 @@
       <c r="M11" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="12">
         <v>39096.32</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="12">
         <v>31752</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -1603,10 +1603,10 @@
       <c r="M12" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="12">
         <v>26671.919999999998</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="12">
         <v>22032</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -1677,10 +1677,10 @@
       <c r="M13" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="12">
         <v>33276.239999999998</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="12">
         <v>27216</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -1751,10 +1751,10 @@
       <c r="M14" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="12">
         <v>25920</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -1825,10 +1825,10 @@
       <c r="M15" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="12">
         <v>5415.04</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="12">
         <v>5184</v>
       </c>
       <c r="P15" s="2"/>
@@ -1897,10 +1897,10 @@
       <c r="M16" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="12">
         <v>33276.239999999998</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="12">
         <v>27216</v>
       </c>
       <c r="P16" s="2" t="s">
@@ -1971,10 +1971,10 @@
       <c r="M17" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="12">
         <v>39096.32</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="12">
         <v>31752</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -2045,10 +2045,10 @@
       <c r="M18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="12">
         <v>25920</v>
       </c>
       <c r="P18" s="2" t="s">
@@ -2119,10 +2119,10 @@
       <c r="M19" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="12">
         <v>37128.720000000001</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="12">
         <v>30240</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -2193,10 +2193,10 @@
       <c r="M20" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="12">
         <v>25920</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -2267,10 +2267,10 @@
       <c r="M21" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="12">
         <v>25920</v>
       </c>
       <c r="P21" s="2" t="s">
@@ -2341,10 +2341,10 @@
       <c r="M22" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="12">
         <v>23369.759999999998</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="12">
         <v>19440</v>
       </c>
       <c r="P22" s="2" t="s">
@@ -2415,10 +2415,10 @@
       <c r="M23" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="12">
         <v>25920</v>
       </c>
       <c r="P23" s="2" t="s">
@@ -2489,10 +2489,10 @@
       <c r="M24" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="12">
         <v>33276.239999999998</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="12">
         <v>27216</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -2563,10 +2563,10 @@
       <c r="M25" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="12">
         <v>25920</v>
       </c>
       <c r="P25" s="2" t="s">
@@ -2637,10 +2637,10 @@
       <c r="M26" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="12">
         <v>28131.599999999999</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="12">
         <v>24192</v>
       </c>
       <c r="P26" s="2" t="s">
@@ -2711,10 +2711,10 @@
       <c r="M27" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="12">
         <v>25920</v>
       </c>
       <c r="P27" s="2" t="s">
@@ -2785,10 +2785,10 @@
       <c r="M28" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="12">
         <v>33276.239999999998</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="12">
         <v>27216</v>
       </c>
       <c r="P28" s="2" t="s">
@@ -2859,10 +2859,10 @@
       <c r="M29" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="12">
         <v>25920</v>
       </c>
       <c r="P29" s="2" t="s">
@@ -2933,10 +2933,10 @@
       <c r="M30" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="12">
         <v>25920</v>
       </c>
       <c r="P30" s="2" t="s">
@@ -3007,10 +3007,10 @@
       <c r="M31" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="12">
         <v>39096.32</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="12">
         <v>31752</v>
       </c>
       <c r="P31" s="2" t="s">
@@ -3081,10 +3081,10 @@
       <c r="M32" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="12">
         <v>33276.239999999998</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="12">
         <v>27216</v>
       </c>
       <c r="P32" s="2" t="s">
@@ -3155,10 +3155,10 @@
       <c r="M33" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="12">
         <v>25920</v>
       </c>
       <c r="P33" s="2" t="s">
@@ -3229,10 +3229,10 @@
       <c r="M34" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="12">
         <v>25920</v>
       </c>
       <c r="P34" s="2" t="s">
@@ -3303,10 +3303,10 @@
       <c r="M35" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="12">
         <v>28865.040000000001</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="12">
         <v>24624</v>
       </c>
       <c r="P35" s="2" t="s">
@@ -3377,10 +3377,10 @@
       <c r="M36" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="12">
         <v>37128.720000000001</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="12">
         <v>30240</v>
       </c>
       <c r="P36" s="2" t="s">
@@ -3451,10 +3451,10 @@
       <c r="M37" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="12">
         <v>40568.239999999998</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="12">
         <v>32832</v>
       </c>
       <c r="P37" s="2" t="s">
@@ -3525,10 +3525,10 @@
       <c r="M38" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="12">
         <v>25920</v>
       </c>
       <c r="P38" s="2" t="s">
@@ -3599,10 +3599,10 @@
       <c r="M39" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="12">
         <v>39096.32</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="12">
         <v>31752</v>
       </c>
       <c r="P39" s="2" t="s">
@@ -3673,10 +3673,10 @@
       <c r="M40" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="12">
         <v>5415.04</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="12">
         <v>5184</v>
       </c>
       <c r="P40" s="2"/>
@@ -3745,10 +3745,10 @@
       <c r="M41" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="12">
         <v>25571.200000000001</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="12">
         <v>21168</v>
       </c>
       <c r="P41" s="2" t="s">
@@ -3819,10 +3819,10 @@
       <c r="M42" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="12">
         <v>29974.080000000002</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="12">
         <v>24624</v>
       </c>
       <c r="P42" s="2" t="s">
@@ -3893,10 +3893,10 @@
       <c r="M43" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="12">
         <v>25920</v>
       </c>
       <c r="P43" s="2" t="s">
@@ -3967,10 +3967,10 @@
       <c r="M44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="12">
         <v>23369.759999999998</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="12">
         <v>19440</v>
       </c>
       <c r="P44" s="2" t="s">
@@ -4041,10 +4041,10 @@
       <c r="M45" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="12">
         <v>31625.200000000001</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="12">
         <v>25920</v>
       </c>
       <c r="P45" s="2" t="s">

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF586466-494C-4705-B408-E520727B599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8145"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$U$9</definedName>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>44234</t>
   </si>
@@ -201,53 +206,17 @@
     <t>Servicios profesionales por honorarios asimilados a salarios</t>
   </si>
   <si>
+    <t>En este periodo no hubo personal contratado por honorarios.</t>
+  </si>
+  <si>
     <t>Departamento de Recursos Humanos (UPP)</t>
-  </si>
-  <si>
-    <t>Profr Investigador Titular B</t>
-  </si>
-  <si>
-    <t>Jefe de Oficina C</t>
-  </si>
-  <si>
-    <t>http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/leyes_cintillo/Codigo%20Civil.pdf</t>
-  </si>
-  <si>
-    <t>La institución trabaja sin números de contratos para el personal contratado por honorarios, ni da prestaciones de ningún tipo.</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/11/ALBINO_AHUMADA_MEDINA.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/11/CHACON_GRAILLE_CLEMENTE_RODOLFO.pdf</t>
-  </si>
-  <si>
-    <t>Albino</t>
-  </si>
-  <si>
-    <t>Ahumada</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>Graille</t>
-  </si>
-  <si>
-    <t>Chacon</t>
-  </si>
-  <si>
-    <t>Clemente Rodolfo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -260,23 +229,14 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,14 +253,8 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,24 +277,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -352,37 +293,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,19 +578,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:U9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,24 +597,24 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="98" customWidth="1"/>
+    <col min="17" max="17" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" customWidth="1"/>
-    <col min="21" max="21" width="72.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -699,38 +623,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -863,29 +787,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -952,126 +876,41 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="5">
-        <v>121001</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>44834</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="3">
-        <v>44562</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44742</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="8">
-        <v>136265.28</v>
-      </c>
-      <c r="O8" s="8">
-        <v>115806</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="S8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="T8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44652</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="5">
-        <v>121001</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="3">
-        <v>44562</v>
-      </c>
-      <c r="L9" s="3">
-        <v>44742</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="8">
-        <v>84154.44</v>
-      </c>
-      <c r="O9" s="8">
-        <v>74826</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="3">
-        <v>44753</v>
-      </c>
-      <c r="T9" s="3">
-        <v>44753</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1085,21 +924,16 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D133">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="Q8:Q9" r:id="rId1" display="http://www.congreso-hidalgo.gob.mx/biblioteca_legislativa/leyes_cintillo/Codigo%20Civil.pdf"/>
-    <hyperlink ref="J8" r:id="rId2"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF586466-494C-4705-B408-E520727B599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -206,16 +200,16 @@
     <t>Servicios profesionales por honorarios asimilados a salarios</t>
   </si>
   <si>
+    <t>Departamento de Recursos Humanos (UPP)</t>
+  </si>
+  <si>
     <t>En este periodo no hubo personal contratado por honorarios.</t>
-  </si>
-  <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -300,12 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,18 +566,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +602,7 @@
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
+    <col min="21" max="21" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -639,7 +627,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -650,11 +638,11 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -881,10 +869,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="3">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -901,16 +889,16 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="3">
+        <v>44936</v>
+      </c>
+      <c r="T8" s="3">
+        <v>44936</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="S8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="T8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +912,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -933,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -223,11 +228,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -566,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,7 +584,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +609,7 @@
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -864,15 +871,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -892,10 +899,10 @@
         <v>60</v>
       </c>
       <c r="S8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="T8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>61</v>

--- a/xlsx/a69_f11UPPachuca.xlsx
+++ b/xlsx/a69_f11UPPachuca.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFC30F4-8795-4DAD-A42B-66400B3E4E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$2</definedName>
+    <definedName name="Hidden_28">Hidden_2!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>44234</t>
   </si>
@@ -94,6 +97,9 @@
     <t>350327</t>
   </si>
   <si>
+    <t>570763</t>
+  </si>
+  <si>
     <t>350328</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t xml:space="preserve">Segundo apellido de la persona contratada </t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+  </si>
+  <si>
     <t>Número de contrato</t>
   </si>
   <si>
@@ -172,7 +181,7 @@
     <t>Fecha de término del contrato</t>
   </si>
   <si>
-    <t>Servicios contratados</t>
+    <t>Servicios contratados (Redactados con perspectiva de género)</t>
   </si>
   <si>
     <t>Remuneración mensual bruta o contraprestación</t>
@@ -203,6 +212,12 @@
   </si>
   <si>
     <t>Servicios profesionales por honorarios asimilados a salarios</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
   <si>
     <t>Departamento de Recursos Humanos (UPP)</t>
@@ -214,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,13 +243,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -282,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -301,6 +314,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,39 +348,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,6 +413,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -429,6 +465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,151 +493,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,27 +674,28 @@
     <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.5703125" customWidth="1"/>
+    <col min="9" max="9" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -634,7 +712,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -645,13 +723,13 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -677,46 +755,49 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
       </c>
       <c r="L4" t="s">
         <v>8</v>
       </c>
       <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
         <v>11</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
       </c>
       <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>11</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>8</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -780,10 +861,13 @@
       <c r="U5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -805,81 +889,85 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="3">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -895,22 +983,23 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="3">
-        <v>45026</v>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="T8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>61</v>
+        <v>45117</v>
+      </c>
+      <c r="U8" s="3">
+        <v>45117</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A6:V6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -918,9 +1007,12 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I8:I201" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>Hidden_28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -928,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -937,12 +1029,35 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
